--- a/model/Tables_init/Cout_Intangible_init.xlsx
+++ b/model/Tables_init/Cout_Intangible_init.xlsx
@@ -21,6 +21,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Cout_Intangibles_Bati!$A$1:$G$65</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Cout_Intangibles_Bati!$A$1:$G$65</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Cout_Intangibles_Bati!$A$1:$G$65</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">Cout_Intangibles_Bati!$A$1:$G$65</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Cout_Intangibles!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -585,7 +586,7 @@
   </sheetPr>
   <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G69" activeCellId="0" sqref="G69"/>
     </sheetView>
   </sheetViews>
@@ -2114,8 +2115,8 @@
   </sheetPr>
   <dimension ref="A1:J1250"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K1" activeCellId="0" sqref="K1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -2443,7 +2444,7 @@
         <v>2.45701711046511</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>0.147875866044969</v>
+        <v>0.0924224162781057</v>
       </c>
       <c r="J10" s="0" t="n">
         <v>0.09407</v>
@@ -2475,7 +2476,7 @@
         <v>3.17730976744185</v>
       </c>
       <c r="I11" s="0" t="n">
-        <v>0.0369689665112423</v>
+        <v>0.0231056040695264</v>
       </c>
       <c r="J11" s="0" t="n">
         <v>0.09407</v>
@@ -2507,7 +2508,7 @@
         <v>0.92</v>
       </c>
       <c r="I12" s="0" t="n">
-        <v>0.221813799067454</v>
+        <v>0.277267248834317</v>
       </c>
       <c r="J12" s="0" t="n">
         <v>0.09407</v>
@@ -2539,7 +2540,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>0.0554534497668634</v>
+        <v>0.0693168122085793</v>
       </c>
       <c r="J13" s="0" t="n">
         <v>0.09407</v>
@@ -2827,7 +2828,7 @@
         <v>0.92</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>0.213923929917253</v>
+        <v>0.267404912396566</v>
       </c>
       <c r="J22" s="0" t="n">
         <v>0.09407</v>
@@ -2859,7 +2860,7 @@
         <v>1</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>0.0534809824793133</v>
+        <v>0.0668512280991416</v>
       </c>
       <c r="J23" s="0" t="n">
         <v>0.09407</v>
@@ -2891,7 +2892,7 @@
         <v>2.94489544186046</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>0.142615953278169</v>
+        <v>0.0891349707988555</v>
       </c>
       <c r="J24" s="0" t="n">
         <v>0.09407</v>
@@ -2923,7 +2924,7 @@
         <v>3.39795627906976</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>0.0356539883195422</v>
+        <v>0.0222837426997139</v>
       </c>
       <c r="J25" s="0" t="n">
         <v>0.09407</v>
@@ -3531,7 +3532,7 @@
         <v>0.92</v>
       </c>
       <c r="I44" s="0" t="n">
-        <v>0.187041197499437</v>
+        <v>0.233801496874296</v>
       </c>
       <c r="J44" s="0" t="n">
         <v>0.09407</v>
@@ -3563,7 +3564,7 @@
         <v>1</v>
       </c>
       <c r="I45" s="0" t="n">
-        <v>0.0467602993748592</v>
+        <v>0.058450374218574</v>
       </c>
       <c r="J45" s="0" t="n">
         <v>0.09407</v>
@@ -3595,7 +3596,7 @@
         <v>2.94489544186046</v>
       </c>
       <c r="I46" s="0" t="n">
-        <v>0.124694131666291</v>
+        <v>0.077933832291432</v>
       </c>
       <c r="J46" s="0" t="n">
         <v>0.09407</v>
@@ -3627,7 +3628,7 @@
         <v>3.39795627906976</v>
       </c>
       <c r="I47" s="0" t="n">
-        <v>0.0311735329165728</v>
+        <v>0.019483458072858</v>
       </c>
       <c r="J47" s="0" t="n">
         <v>0.09407</v>
@@ -3915,7 +3916,7 @@
         <v>0.92</v>
       </c>
       <c r="I56" s="0" t="n">
-        <v>0.18755600301716</v>
+        <v>0.23444500377145</v>
       </c>
       <c r="J56" s="0" t="n">
         <v>0.09407</v>
@@ -3947,7 +3948,7 @@
         <v>1</v>
       </c>
       <c r="I57" s="0" t="n">
-        <v>0.04688900075429</v>
+        <v>0.0586112509428626</v>
       </c>
       <c r="J57" s="0" t="n">
         <v>0.09407</v>
@@ -3979,7 +3980,7 @@
         <v>2.94489544186046</v>
       </c>
       <c r="I58" s="0" t="n">
-        <v>0.125037335344773</v>
+        <v>0.0781483345904834</v>
       </c>
       <c r="J58" s="0" t="n">
         <v>0.09407</v>
@@ -4011,7 +4012,7 @@
         <v>3.39795627906976</v>
       </c>
       <c r="I59" s="0" t="n">
-        <v>0.0312593338361934</v>
+        <v>0.0195370836476209</v>
       </c>
       <c r="J59" s="0" t="n">
         <v>0.09407</v>
@@ -4299,7 +4300,7 @@
         <v>0.92</v>
       </c>
       <c r="I68" s="0" t="n">
-        <v>0.190011467783042</v>
+        <v>0.237514334728802</v>
       </c>
       <c r="J68" s="0" t="n">
         <v>0.09407</v>
@@ -4331,7 +4332,7 @@
         <v>1</v>
       </c>
       <c r="I69" s="0" t="n">
-        <v>0.0475028669457604</v>
+        <v>0.0593785836822005</v>
       </c>
       <c r="J69" s="0" t="n">
         <v>0.09407</v>
@@ -4363,7 +4364,7 @@
         <v>2.94489544186046</v>
       </c>
       <c r="I70" s="0" t="n">
-        <v>0.126674311855361</v>
+        <v>0.0791714449096007</v>
       </c>
       <c r="J70" s="0" t="n">
         <v>0.09407</v>
@@ -4395,7 +4396,7 @@
         <v>3.39795627906976</v>
       </c>
       <c r="I71" s="0" t="n">
-        <v>0.0316685779638403</v>
+        <v>0.0197928612274002</v>
       </c>
       <c r="J71" s="0" t="n">
         <v>0.09407</v>
@@ -4683,7 +4684,7 @@
         <v>0.919999999999999</v>
       </c>
       <c r="I80" s="0" t="n">
-        <v>0.136508223396163</v>
+        <v>0.170635279245203</v>
       </c>
       <c r="J80" s="0" t="n">
         <v>0.09407</v>
@@ -4715,7 +4716,7 @@
         <v>1</v>
       </c>
       <c r="I81" s="0" t="n">
-        <v>0.0341270558490407</v>
+        <v>0.0426588198113008</v>
       </c>
       <c r="J81" s="0" t="n">
         <v>0.09407</v>
@@ -4747,7 +4748,7 @@
         <v>2.94489544186046</v>
       </c>
       <c r="I82" s="0" t="n">
-        <v>0.0455027411320542</v>
+        <v>0.0284392132075339</v>
       </c>
       <c r="J82" s="0" t="n">
         <v>0.09407</v>
@@ -4779,7 +4780,7 @@
         <v>3.39795627906976</v>
       </c>
       <c r="I83" s="0" t="n">
-        <v>0.0113756852830136</v>
+        <v>0.00710980330188347</v>
       </c>
       <c r="J83" s="0" t="n">
         <v>0.09407</v>
@@ -4811,7 +4812,7 @@
         <v>2.80410195348837</v>
       </c>
       <c r="I84" s="0" t="n">
-        <v>0.0455027411320542</v>
+        <v>0.0284392132075339</v>
       </c>
       <c r="J84" s="0" t="n">
         <v>0.09407</v>
@@ -4843,7 +4844,7 @@
         <v>3.32861023255814</v>
       </c>
       <c r="I85" s="0" t="n">
-        <v>0.0113756852830136</v>
+        <v>0.00710980330188347</v>
       </c>
       <c r="J85" s="0" t="n">
         <v>0.09407</v>
@@ -5131,7 +5132,7 @@
         <v>0.92</v>
       </c>
       <c r="I94" s="0" t="n">
-        <v>0.235566560239397</v>
+        <v>0.294458200299246</v>
       </c>
       <c r="J94" s="0" t="n">
         <v>0.09407</v>
@@ -5163,7 +5164,7 @@
         <v>1</v>
       </c>
       <c r="I95" s="0" t="n">
-        <v>0.0588916400598492</v>
+        <v>0.0736145500748115</v>
       </c>
       <c r="J95" s="0" t="n">
         <v>0.09407</v>
@@ -5195,7 +5196,7 @@
         <v>2.94489544186046</v>
       </c>
       <c r="I96" s="0" t="n">
-        <v>0.0785221867464656</v>
+        <v>0.049076366716541</v>
       </c>
       <c r="J96" s="0" t="n">
         <v>0.09407</v>
@@ -5227,7 +5228,7 @@
         <v>3.39795627906976</v>
       </c>
       <c r="I97" s="0" t="n">
-        <v>0.0196305466866164</v>
+        <v>0.0122690916791352</v>
       </c>
       <c r="J97" s="0" t="n">
         <v>0.09407</v>
@@ -5259,7 +5260,7 @@
         <v>2.80410195348837</v>
       </c>
       <c r="I98" s="0" t="n">
-        <v>0.0785221867464656</v>
+        <v>0.049076366716541</v>
       </c>
       <c r="J98" s="0" t="n">
         <v>0.09407</v>
@@ -5291,7 +5292,7 @@
         <v>3.32861023255814</v>
       </c>
       <c r="I99" s="0" t="n">
-        <v>0.0196305466866164</v>
+        <v>0.0122690916791352</v>
       </c>
       <c r="J99" s="0" t="n">
         <v>0.09407</v>
@@ -5579,7 +5580,7 @@
         <v>0.92</v>
       </c>
       <c r="I108" s="0" t="n">
-        <v>0.21845357115963</v>
+        <v>0.273066963949538</v>
       </c>
       <c r="J108" s="0" t="n">
         <v>0.09407</v>
@@ -5611,7 +5612,7 @@
         <v>1</v>
       </c>
       <c r="I109" s="0" t="n">
-        <v>0.0546133927899076</v>
+        <v>0.0682667409873845</v>
       </c>
       <c r="J109" s="0" t="n">
         <v>0.09407</v>
@@ -5643,7 +5644,7 @@
         <v>2.94489544186046</v>
       </c>
       <c r="I110" s="0" t="n">
-        <v>0.0728178570532101</v>
+        <v>0.0455111606582563</v>
       </c>
       <c r="J110" s="0" t="n">
         <v>0.09407</v>
@@ -5675,7 +5676,7 @@
         <v>3.39795627906976</v>
       </c>
       <c r="I111" s="0" t="n">
-        <v>0.0182044642633025</v>
+        <v>0.0113777901645641</v>
       </c>
       <c r="J111" s="0" t="n">
         <v>0.09407</v>
@@ -5707,7 +5708,7 @@
         <v>2.80410195348837</v>
       </c>
       <c r="I112" s="0" t="n">
-        <v>0.0728178570532101</v>
+        <v>0.0455111606582563</v>
       </c>
       <c r="J112" s="0" t="n">
         <v>0.09407</v>
@@ -5739,7 +5740,7 @@
         <v>3.32861023255814</v>
       </c>
       <c r="I113" s="0" t="n">
-        <v>0.0182044642633025</v>
+        <v>0.0113777901645641</v>
       </c>
       <c r="J113" s="0" t="n">
         <v>0.09407</v>
@@ -6027,7 +6028,7 @@
         <v>0.92</v>
       </c>
       <c r="I122" s="0" t="n">
-        <v>0.231298006447707</v>
+        <v>0.289122508059633</v>
       </c>
       <c r="J122" s="0" t="n">
         <v>0.09407</v>
@@ -6059,7 +6060,7 @@
         <v>1</v>
       </c>
       <c r="I123" s="0" t="n">
-        <v>0.0578245016119267</v>
+        <v>0.0722806270149084</v>
       </c>
       <c r="J123" s="0" t="n">
         <v>0.09407</v>
@@ -6091,7 +6092,7 @@
         <v>2.94489544186046</v>
       </c>
       <c r="I124" s="0" t="n">
-        <v>0.0770993354825689</v>
+        <v>0.0481870846766056</v>
       </c>
       <c r="J124" s="0" t="n">
         <v>0.09407</v>
@@ -6123,7 +6124,7 @@
         <v>3.39795627906976</v>
       </c>
       <c r="I125" s="0" t="n">
-        <v>0.0192748338706422</v>
+        <v>0.0120467711691514</v>
       </c>
       <c r="J125" s="0" t="n">
         <v>0.09407</v>
@@ -6155,7 +6156,7 @@
         <v>2.80410195348837</v>
       </c>
       <c r="I126" s="0" t="n">
-        <v>0.0770993354825689</v>
+        <v>0.0481870846766056</v>
       </c>
       <c r="J126" s="0" t="n">
         <v>0.09407</v>
@@ -6187,7 +6188,7 @@
         <v>3.32861023255814</v>
       </c>
       <c r="I127" s="0" t="n">
-        <v>0.0192748338706422</v>
+        <v>0.0120467711691514</v>
       </c>
       <c r="J127" s="0" t="n">
         <v>0.09407</v>
@@ -6475,7 +6476,7 @@
         <v>0.919999999999999</v>
       </c>
       <c r="I136" s="0" t="n">
-        <v>0.226946903763474</v>
+        <v>0.283683629704343</v>
       </c>
       <c r="J136" s="0" t="n">
         <v>0.09407</v>
@@ -6507,7 +6508,7 @@
         <v>1</v>
       </c>
       <c r="I137" s="0" t="n">
-        <v>0.0567367259408686</v>
+        <v>0.0709209074260857</v>
       </c>
       <c r="J137" s="0" t="n">
         <v>0.09407</v>
@@ -6539,7 +6540,7 @@
         <v>2.94489544186046</v>
       </c>
       <c r="I138" s="0" t="n">
-        <v>0.0756489679211581</v>
+        <v>0.0472806049507238</v>
       </c>
       <c r="J138" s="0" t="n">
         <v>0.09407</v>
@@ -6571,7 +6572,7 @@
         <v>3.39795627906976</v>
       </c>
       <c r="I139" s="0" t="n">
-        <v>0.0189122419802895</v>
+        <v>0.011820151237681</v>
       </c>
       <c r="J139" s="0" t="n">
         <v>0.09407</v>
@@ -6603,7 +6604,7 @@
         <v>2.80410195348837</v>
       </c>
       <c r="I140" s="0" t="n">
-        <v>0.0756489679211581</v>
+        <v>0.0472806049507238</v>
       </c>
       <c r="J140" s="0" t="n">
         <v>0.09407</v>
@@ -6635,7 +6636,7 @@
         <v>3.32861023255814</v>
       </c>
       <c r="I141" s="0" t="n">
-        <v>0.0189122419802895</v>
+        <v>0.011820151237681</v>
       </c>
       <c r="J141" s="0" t="n">
         <v>0.09407</v>
@@ -6923,7 +6924,7 @@
         <v>0.92</v>
       </c>
       <c r="I150" s="0" t="n">
-        <v>0.256656569293254</v>
+        <v>0.320820711616567</v>
       </c>
       <c r="J150" s="0" t="n">
         <v>0.09407</v>
@@ -6955,7 +6956,7 @@
         <v>1</v>
       </c>
       <c r="I151" s="0" t="n">
-        <v>0.0641641423233134</v>
+        <v>0.0802051779041418</v>
       </c>
       <c r="J151" s="0" t="n">
         <v>0.09407</v>
@@ -6987,7 +6988,7 @@
         <v>2.94489544186046</v>
       </c>
       <c r="I152" s="0" t="n">
-        <v>0.0855521897644179</v>
+        <v>0.0534701186027612</v>
       </c>
       <c r="J152" s="0" t="n">
         <v>0.09407</v>
@@ -7019,7 +7020,7 @@
         <v>3.39795627906976</v>
       </c>
       <c r="I153" s="0" t="n">
-        <v>0.0213880474411045</v>
+        <v>0.0133675296506903</v>
       </c>
       <c r="J153" s="0" t="n">
         <v>0.09407</v>
@@ -7051,7 +7052,7 @@
         <v>2.80410195348837</v>
       </c>
       <c r="I154" s="0" t="n">
-        <v>0.0855521897644179</v>
+        <v>0.0534701186027612</v>
       </c>
       <c r="J154" s="0" t="n">
         <v>0.09407</v>
@@ -7083,7 +7084,7 @@
         <v>3.32861023255814</v>
       </c>
       <c r="I155" s="0" t="n">
-        <v>0.0213880474411045</v>
+        <v>0.0133675296506903</v>
       </c>
       <c r="J155" s="0" t="n">
         <v>0.09407</v>
@@ -7307,7 +7308,7 @@
         <v>0.92</v>
       </c>
       <c r="I162" s="0" t="n">
-        <v>0.228916867310137</v>
+        <v>0.286146084137671</v>
       </c>
       <c r="J162" s="0" t="n">
         <v>0.09407</v>
@@ -7339,7 +7340,7 @@
         <v>1</v>
       </c>
       <c r="I163" s="0" t="n">
-        <v>0.0572292168275343</v>
+        <v>0.0715365210344178</v>
       </c>
       <c r="J163" s="0" t="n">
         <v>0.09407</v>
@@ -7371,7 +7372,7 @@
         <v>3.01659497674418</v>
       </c>
       <c r="I164" s="0" t="n">
-        <v>0.0763056224367123</v>
+        <v>0.0476910140229452</v>
       </c>
       <c r="J164" s="0" t="n">
         <v>0.09407</v>
@@ -7403,7 +7404,7 @@
         <v>3.4806865116279</v>
       </c>
       <c r="I165" s="0" t="n">
-        <v>0.0190764056091781</v>
+        <v>0.0119227535057363</v>
       </c>
       <c r="J165" s="0" t="n">
         <v>0.09407</v>
@@ -7435,7 +7436,7 @@
         <v>2.87237358139535</v>
       </c>
       <c r="I166" s="0" t="n">
-        <v>0.0763056224367123</v>
+        <v>0.0476910140229452</v>
       </c>
       <c r="J166" s="0" t="n">
         <v>0.09407</v>
@@ -7467,7 +7468,7 @@
         <v>3.40965209302325</v>
       </c>
       <c r="I167" s="0" t="n">
-        <v>0.0190764056091781</v>
+        <v>0.0119227535057363</v>
       </c>
       <c r="J167" s="0" t="n">
         <v>0.09407</v>
@@ -7755,7 +7756,7 @@
         <v>0.92</v>
       </c>
       <c r="I176" s="0" t="n">
-        <v>0.217722983730885</v>
+        <v>0.272153729663606</v>
       </c>
       <c r="J176" s="0" t="n">
         <v>0.09407</v>
@@ -7787,7 +7788,7 @@
         <v>1</v>
       </c>
       <c r="I177" s="0" t="n">
-        <v>0.0544307459327213</v>
+        <v>0.0680384324159016</v>
       </c>
       <c r="J177" s="0" t="n">
         <v>0.09407</v>
@@ -7819,7 +7820,7 @@
         <v>2.94489544186046</v>
       </c>
       <c r="I178" s="0" t="n">
-        <v>0.072574327910295</v>
+        <v>0.0453589549439344</v>
       </c>
       <c r="J178" s="0" t="n">
         <v>0.09407</v>
@@ -7851,7 +7852,7 @@
         <v>3.39795627906976</v>
       </c>
       <c r="I179" s="0" t="n">
-        <v>0.0181435819775738</v>
+        <v>0.0113397387359836</v>
       </c>
       <c r="J179" s="0" t="n">
         <v>0.09407</v>
@@ -7883,7 +7884,7 @@
         <v>2.80410195348837</v>
       </c>
       <c r="I180" s="0" t="n">
-        <v>0.072574327910295</v>
+        <v>0.0453589549439344</v>
       </c>
       <c r="J180" s="0" t="n">
         <v>0.09407</v>
@@ -7915,7 +7916,7 @@
         <v>3.32861023255814</v>
       </c>
       <c r="I181" s="0" t="n">
-        <v>0.0181435819775738</v>
+        <v>0.0113397387359836</v>
       </c>
       <c r="J181" s="0" t="n">
         <v>0.09407</v>
@@ -8203,7 +8204,7 @@
         <v>0.92</v>
       </c>
       <c r="I190" s="0" t="n">
-        <v>0.21982611327845</v>
+        <v>0.274782641598063</v>
       </c>
       <c r="J190" s="0" t="n">
         <v>0.09407</v>
@@ -8235,7 +8236,7 @@
         <v>1</v>
       </c>
       <c r="I191" s="0" t="n">
-        <v>0.0549565283196126</v>
+        <v>0.0686956603995157</v>
       </c>
       <c r="J191" s="0" t="n">
         <v>0.09407</v>
@@ -8267,7 +8268,7 @@
         <v>2.94489544186046</v>
       </c>
       <c r="I192" s="0" t="n">
-        <v>0.0732753710928168</v>
+        <v>0.0457971069330105</v>
       </c>
       <c r="J192" s="0" t="n">
         <v>0.09407</v>
@@ -8299,7 +8300,7 @@
         <v>3.39795627906976</v>
       </c>
       <c r="I193" s="0" t="n">
-        <v>0.0183188427732042</v>
+        <v>0.0114492767332526</v>
       </c>
       <c r="J193" s="0" t="n">
         <v>0.09407</v>
@@ -8331,7 +8332,7 @@
         <v>2.80410195348837</v>
       </c>
       <c r="I194" s="0" t="n">
-        <v>0.0732753710928168</v>
+        <v>0.0457971069330105</v>
       </c>
       <c r="J194" s="0" t="n">
         <v>0.09407</v>
@@ -8363,7 +8364,7 @@
         <v>3.32861023255814</v>
       </c>
       <c r="I195" s="0" t="n">
-        <v>0.0183188427732042</v>
+        <v>0.0114492767332526</v>
       </c>
       <c r="J195" s="0" t="n">
         <v>0.09407</v>
@@ -8651,7 +8652,7 @@
         <v>0.919999999999999</v>
       </c>
       <c r="I204" s="0" t="n">
-        <v>0.142731602584571</v>
+        <v>0.178414503230713</v>
       </c>
       <c r="J204" s="0" t="n">
         <v>0.09407</v>
@@ -8683,7 +8684,7 @@
         <v>1</v>
       </c>
       <c r="I205" s="0" t="n">
-        <v>0.0356829006461427</v>
+        <v>0.0446036258076784</v>
       </c>
       <c r="J205" s="0" t="n">
         <v>0.09407</v>
@@ -8715,7 +8716,7 @@
         <v>2.94489544186046</v>
       </c>
       <c r="I206" s="0" t="n">
-        <v>0.0475772008615236</v>
+        <v>0.0297357505384522</v>
       </c>
       <c r="J206" s="0" t="n">
         <v>0.09407</v>
@@ -8747,7 +8748,7 @@
         <v>3.39795627906976</v>
       </c>
       <c r="I207" s="0" t="n">
-        <v>0.0118943002153809</v>
+        <v>0.00743393763461306</v>
       </c>
       <c r="J207" s="0" t="n">
         <v>0.09407</v>
@@ -8779,7 +8780,7 @@
         <v>2.80410195348837</v>
       </c>
       <c r="I208" s="0" t="n">
-        <v>0.0475772008615236</v>
+        <v>0.0297357505384522</v>
       </c>
       <c r="J208" s="0" t="n">
         <v>0.09407</v>
@@ -8811,7 +8812,7 @@
         <v>3.32861023255814</v>
       </c>
       <c r="I209" s="0" t="n">
-        <v>0.0118943002153809</v>
+        <v>0.00743393763461306</v>
       </c>
       <c r="J209" s="0" t="n">
         <v>0.09407</v>
@@ -9035,7 +9036,7 @@
         <v>0.92</v>
       </c>
       <c r="I216" s="0" t="n">
-        <v>0.213112195059421</v>
+        <v>0.266390243824276</v>
       </c>
       <c r="J216" s="0" t="n">
         <v>0.09407</v>
@@ -9067,7 +9068,7 @@
         <v>1</v>
       </c>
       <c r="I217" s="0" t="n">
-        <v>0.0532780487648553</v>
+        <v>0.0665975609560691</v>
       </c>
       <c r="J217" s="0" t="n">
         <v>0.09407</v>
@@ -9099,7 +9100,7 @@
         <v>2.9761825116279</v>
       </c>
       <c r="I218" s="0" t="n">
-        <v>0.0710373983531404</v>
+        <v>0.0443983739707128</v>
       </c>
       <c r="J218" s="0" t="n">
         <v>0.09407</v>
@@ -9131,7 +9132,7 @@
         <v>3.43405674418604</v>
       </c>
       <c r="I219" s="0" t="n">
-        <v>0.0177593495882851</v>
+        <v>0.0110995934926782</v>
       </c>
       <c r="J219" s="0" t="n">
         <v>0.09407</v>
@@ -9163,7 +9164,7 @@
         <v>2.83389320930232</v>
       </c>
       <c r="I220" s="0" t="n">
-        <v>0.0710373983531404</v>
+        <v>0.0443983739707128</v>
       </c>
       <c r="J220" s="0" t="n">
         <v>0.09407</v>
@@ -9195,7 +9196,7 @@
         <v>3.36397395348837</v>
       </c>
       <c r="I221" s="0" t="n">
-        <v>0.0177593495882851</v>
+        <v>0.0110995934926782</v>
       </c>
       <c r="J221" s="0" t="n">
         <v>0.09407</v>
@@ -9483,7 +9484,7 @@
         <v>0.92</v>
       </c>
       <c r="I230" s="0" t="n">
-        <v>0.217603415573458</v>
+        <v>0.272004269466822</v>
       </c>
       <c r="J230" s="0" t="n">
         <v>0.09407</v>
@@ -9515,7 +9516,7 @@
         <v>1</v>
       </c>
       <c r="I231" s="0" t="n">
-        <v>0.0544008538933644</v>
+        <v>0.0680010673667055</v>
       </c>
       <c r="J231" s="0" t="n">
         <v>0.09407</v>
@@ -9547,7 +9548,7 @@
         <v>2.94489544186046</v>
       </c>
       <c r="I232" s="0" t="n">
-        <v>0.0725344718578192</v>
+        <v>0.045334044911137</v>
       </c>
       <c r="J232" s="0" t="n">
         <v>0.09407</v>
@@ -9579,7 +9580,7 @@
         <v>3.39795627906976</v>
       </c>
       <c r="I233" s="0" t="n">
-        <v>0.0181336179644548</v>
+        <v>0.0113335112277843</v>
       </c>
       <c r="J233" s="0" t="n">
         <v>0.09407</v>
@@ -9611,7 +9612,7 @@
         <v>2.80410195348837</v>
       </c>
       <c r="I234" s="0" t="n">
-        <v>0.0725344718578192</v>
+        <v>0.045334044911137</v>
       </c>
       <c r="J234" s="0" t="n">
         <v>0.09407</v>
@@ -9643,7 +9644,7 @@
         <v>3.32861023255814</v>
       </c>
       <c r="I235" s="0" t="n">
-        <v>0.0181336179644548</v>
+        <v>0.0113335112277843</v>
       </c>
       <c r="J235" s="0" t="n">
         <v>0.09407</v>
@@ -9867,7 +9868,7 @@
         <v>0.92</v>
       </c>
       <c r="I242" s="0" t="n">
-        <v>0.223445567414192</v>
+        <v>0.27930695926774</v>
       </c>
       <c r="J242" s="0" t="n">
         <v>0.09407</v>
@@ -9899,7 +9900,7 @@
         <v>1</v>
       </c>
       <c r="I243" s="0" t="n">
-        <v>0.0558613918535479</v>
+        <v>0.0698267398169349</v>
       </c>
       <c r="J243" s="0" t="n">
         <v>0.09407</v>
@@ -9931,7 +9932,7 @@
         <v>2.93120734883721</v>
       </c>
       <c r="I244" s="0" t="n">
-        <v>0.0744818558047306</v>
+        <v>0.0465511598779566</v>
       </c>
       <c r="J244" s="0" t="n">
         <v>0.09407</v>
@@ -9963,7 +9964,7 @@
         <v>3.38216232558139</v>
       </c>
       <c r="I245" s="0" t="n">
-        <v>0.0186204639511826</v>
+        <v>0.0116377899694892</v>
       </c>
       <c r="J245" s="0" t="n">
         <v>0.09407</v>
@@ -9995,7 +9996,7 @@
         <v>2.79106827906976</v>
       </c>
       <c r="I246" s="0" t="n">
-        <v>0.0744818558047306</v>
+        <v>0.0465511598779566</v>
       </c>
       <c r="J246" s="0" t="n">
         <v>0.09407</v>
@@ -10027,7 +10028,7 @@
         <v>3.31313860465116</v>
       </c>
       <c r="I247" s="0" t="n">
-        <v>0.0186204639511826</v>
+        <v>0.0116377899694892</v>
       </c>
       <c r="J247" s="0" t="n">
         <v>0.09407</v>
@@ -10379,7 +10380,7 @@
         <v>0.92</v>
       </c>
       <c r="I258" s="0" t="n">
-        <v>0.180051888591814</v>
+        <v>0.225064860739767</v>
       </c>
       <c r="J258" s="0" t="n">
         <v>0.09407</v>
@@ -10411,7 +10412,7 @@
         <v>1</v>
       </c>
       <c r="I259" s="0" t="n">
-        <v>0.0450129721479534</v>
+        <v>0.0562662151849418</v>
       </c>
       <c r="J259" s="0" t="n">
         <v>0.09407</v>
@@ -10443,7 +10444,7 @@
         <v>2.94489544186046</v>
       </c>
       <c r="I260" s="0" t="n">
-        <v>0.0600172961972712</v>
+        <v>0.0375108101232945</v>
       </c>
       <c r="J260" s="0" t="n">
         <v>0.09407</v>
@@ -10475,7 +10476,7 @@
         <v>3.39795627906976</v>
       </c>
       <c r="I261" s="0" t="n">
-        <v>0.0150043240493178</v>
+        <v>0.00937770253082363</v>
       </c>
       <c r="J261" s="0" t="n">
         <v>0.09407</v>
@@ -10507,7 +10508,7 @@
         <v>2.80410195348837</v>
       </c>
       <c r="I262" s="0" t="n">
-        <v>0.0600172961972712</v>
+        <v>0.0375108101232945</v>
       </c>
       <c r="J262" s="0" t="n">
         <v>0.09407</v>
@@ -10539,7 +10540,7 @@
         <v>3.32861023255814</v>
       </c>
       <c r="I263" s="0" t="n">
-        <v>0.0150043240493178</v>
+        <v>0.00937770253082363</v>
       </c>
       <c r="J263" s="0" t="n">
         <v>0.09407</v>
@@ -10827,7 +10828,7 @@
         <v>0.92</v>
       </c>
       <c r="I272" s="0" t="n">
-        <v>0.225886816308343</v>
+        <v>0.282358520385429</v>
       </c>
       <c r="J272" s="0" t="n">
         <v>0.09407</v>
@@ -10859,7 +10860,7 @@
         <v>1</v>
       </c>
       <c r="I273" s="0" t="n">
-        <v>0.0564717040770859</v>
+        <v>0.0705896300963573</v>
       </c>
       <c r="J273" s="0" t="n">
         <v>0.09407</v>
@@ -10891,7 +10892,7 @@
         <v>2.94489544186046</v>
       </c>
       <c r="I274" s="0" t="n">
-        <v>0.0752956054361145</v>
+        <v>0.0470597533975715</v>
       </c>
       <c r="J274" s="0" t="n">
         <v>0.09407</v>
@@ -10923,7 +10924,7 @@
         <v>3.39795627906976</v>
       </c>
       <c r="I275" s="0" t="n">
-        <v>0.0188239013590286</v>
+        <v>0.0117649383493929</v>
       </c>
       <c r="J275" s="0" t="n">
         <v>0.09407</v>
@@ -10955,7 +10956,7 @@
         <v>2.80410195348837</v>
       </c>
       <c r="I276" s="0" t="n">
-        <v>0.0752956054361145</v>
+        <v>0.0470597533975715</v>
       </c>
       <c r="J276" s="0" t="n">
         <v>0.09407</v>
@@ -10987,7 +10988,7 @@
         <v>3.32861023255814</v>
       </c>
       <c r="I277" s="0" t="n">
-        <v>0.0188239013590286</v>
+        <v>0.0117649383493929</v>
       </c>
       <c r="J277" s="0" t="n">
         <v>0.09407</v>
@@ -11275,7 +11276,7 @@
         <v>0.92</v>
       </c>
       <c r="I286" s="0" t="n">
-        <v>0.250037066476968</v>
+        <v>0.31254633309621</v>
       </c>
       <c r="J286" s="0" t="n">
         <v>0.09407</v>
@@ -11307,7 +11308,7 @@
         <v>1</v>
       </c>
       <c r="I287" s="0" t="n">
-        <v>0.062509266619242</v>
+        <v>0.0781365832740525</v>
       </c>
       <c r="J287" s="0" t="n">
         <v>0.09407</v>
@@ -11339,7 +11340,7 @@
         <v>2.94489544186046</v>
       </c>
       <c r="I288" s="0" t="n">
-        <v>0.083345688825656</v>
+        <v>0.052091055516035</v>
       </c>
       <c r="J288" s="0" t="n">
         <v>0.09407</v>
@@ -11371,7 +11372,7 @@
         <v>3.39795627906976</v>
       </c>
       <c r="I289" s="0" t="n">
-        <v>0.020836422206414</v>
+        <v>0.0130227638790087</v>
       </c>
       <c r="J289" s="0" t="n">
         <v>0.09407</v>
@@ -11403,7 +11404,7 @@
         <v>2.80410195348837</v>
       </c>
       <c r="I290" s="0" t="n">
-        <v>0.083345688825656</v>
+        <v>0.052091055516035</v>
       </c>
       <c r="J290" s="0" t="n">
         <v>0.09407</v>
@@ -11435,7 +11436,7 @@
         <v>3.32861023255814</v>
       </c>
       <c r="I291" s="0" t="n">
-        <v>0.020836422206414</v>
+        <v>0.0130227638790087</v>
       </c>
       <c r="J291" s="0" t="n">
         <v>0.09407</v>
@@ -11723,7 +11724,7 @@
         <v>0.92</v>
       </c>
       <c r="I300" s="0" t="n">
-        <v>0.254010239967373</v>
+        <v>0.317512799959217</v>
       </c>
       <c r="J300" s="0" t="n">
         <v>0.09407</v>
@@ -11755,7 +11756,7 @@
         <v>1</v>
       </c>
       <c r="I301" s="0" t="n">
-        <v>0.0635025599918433</v>
+        <v>0.0793781999898042</v>
       </c>
       <c r="J301" s="0" t="n">
         <v>0.09407</v>
@@ -11787,7 +11788,7 @@
         <v>2.94489544186046</v>
       </c>
       <c r="I302" s="0" t="n">
-        <v>0.0846700799891245</v>
+        <v>0.0529187999932028</v>
       </c>
       <c r="J302" s="0" t="n">
         <v>0.09407</v>
@@ -11819,7 +11820,7 @@
         <v>3.39795627906976</v>
       </c>
       <c r="I303" s="0" t="n">
-        <v>0.0211675199972811</v>
+        <v>0.0132296999983007</v>
       </c>
       <c r="J303" s="0" t="n">
         <v>0.09407</v>
@@ -11851,7 +11852,7 @@
         <v>2.80410195348837</v>
       </c>
       <c r="I304" s="0" t="n">
-        <v>0.0846700799891245</v>
+        <v>0.0529187999932028</v>
       </c>
       <c r="J304" s="0" t="n">
         <v>0.09407</v>
@@ -11883,7 +11884,7 @@
         <v>3.32861023255814</v>
       </c>
       <c r="I305" s="0" t="n">
-        <v>0.0211675199972811</v>
+        <v>0.0132296999983007</v>
       </c>
       <c r="J305" s="0" t="n">
         <v>0.09407</v>
@@ -12171,7 +12172,7 @@
         <v>0.92</v>
       </c>
       <c r="I314" s="0" t="n">
-        <v>0.244239616205661</v>
+        <v>0.305299520257076</v>
       </c>
       <c r="J314" s="0" t="n">
         <v>0.09407</v>
@@ -12203,7 +12204,7 @@
         <v>1</v>
       </c>
       <c r="I315" s="0" t="n">
-        <v>0.0610599040514152</v>
+        <v>0.076324880064269</v>
       </c>
       <c r="J315" s="0" t="n">
         <v>0.09407</v>
@@ -12235,7 +12236,7 @@
         <v>2.94489544186046</v>
       </c>
       <c r="I316" s="0" t="n">
-        <v>0.0814132054018869</v>
+        <v>0.0508832533761793</v>
       </c>
       <c r="J316" s="0" t="n">
         <v>0.09407</v>
@@ -12267,7 +12268,7 @@
         <v>3.39795627906976</v>
       </c>
       <c r="I317" s="0" t="n">
-        <v>0.0203533013504717</v>
+        <v>0.0127208133440448</v>
       </c>
       <c r="J317" s="0" t="n">
         <v>0.09407</v>
@@ -12299,7 +12300,7 @@
         <v>2.80410195348837</v>
       </c>
       <c r="I318" s="0" t="n">
-        <v>0.0814132054018869</v>
+        <v>0.0508832533761793</v>
       </c>
       <c r="J318" s="0" t="n">
         <v>0.09407</v>
@@ -12331,7 +12332,7 @@
         <v>3.32861023255814</v>
       </c>
       <c r="I319" s="0" t="n">
-        <v>0.0203533013504717</v>
+        <v>0.0127208133440448</v>
       </c>
       <c r="J319" s="0" t="n">
         <v>0.09407</v>
@@ -12619,7 +12620,7 @@
         <v>0.92</v>
       </c>
       <c r="I328" s="0" t="n">
-        <v>0.226943587917855</v>
+        <v>0.283679484897318</v>
       </c>
       <c r="J328" s="0" t="n">
         <v>0.09407</v>
@@ -12651,7 +12652,7 @@
         <v>1</v>
       </c>
       <c r="I329" s="0" t="n">
-        <v>0.0567358969794637</v>
+        <v>0.0709198712243296</v>
       </c>
       <c r="J329" s="0" t="n">
         <v>0.09407</v>
@@ -12683,7 +12684,7 @@
         <v>2.9521585116279</v>
       </c>
       <c r="I330" s="0" t="n">
-        <v>0.0756478626392849</v>
+        <v>0.0472799141495531</v>
       </c>
       <c r="J330" s="0" t="n">
         <v>0.09407</v>
@@ -12715,7 +12716,7 @@
         <v>3.40633674418604</v>
       </c>
       <c r="I331" s="0" t="n">
-        <v>0.0189119656598212</v>
+        <v>0.0118199785373883</v>
       </c>
       <c r="J331" s="0" t="n">
         <v>0.09407</v>
@@ -12747,7 +12748,7 @@
         <v>2.81101778073089</v>
       </c>
       <c r="I332" s="0" t="n">
-        <v>0.0756478626392849</v>
+        <v>0.0472799141495531</v>
       </c>
       <c r="J332" s="0" t="n">
         <v>0.09407</v>
@@ -12779,7 +12780,7 @@
         <v>3.33681966777408</v>
       </c>
       <c r="I333" s="0" t="n">
-        <v>0.0189119656598212</v>
+        <v>0.0118199785373883</v>
       </c>
       <c r="J333" s="0" t="n">
         <v>0.09407</v>
@@ -13067,7 +13068,7 @@
         <v>0.92</v>
       </c>
       <c r="I342" s="0" t="n">
-        <v>0.172401205066529</v>
+        <v>0.215501506333162</v>
       </c>
       <c r="J342" s="0" t="n">
         <v>0.09407</v>
@@ -13099,7 +13100,7 @@
         <v>1</v>
       </c>
       <c r="I343" s="0" t="n">
-        <v>0.0431003012666324</v>
+        <v>0.0538753765832904</v>
       </c>
       <c r="J343" s="0" t="n">
         <v>0.09407</v>
@@ -13131,7 +13132,7 @@
         <v>2.94489544186046</v>
       </c>
       <c r="I344" s="0" t="n">
-        <v>0.0574670683555098</v>
+        <v>0.0359169177221936</v>
       </c>
       <c r="J344" s="0" t="n">
         <v>0.09407</v>
@@ -13163,7 +13164,7 @@
         <v>3.39795627906976</v>
       </c>
       <c r="I345" s="0" t="n">
-        <v>0.0143667670888775</v>
+        <v>0.00897922943054841</v>
       </c>
       <c r="J345" s="0" t="n">
         <v>0.09407</v>
@@ -13195,7 +13196,7 @@
         <v>2.80410195348837</v>
       </c>
       <c r="I346" s="0" t="n">
-        <v>0.0574670683555098</v>
+        <v>0.0359169177221936</v>
       </c>
       <c r="J346" s="0" t="n">
         <v>0.09407</v>
@@ -13227,7 +13228,7 @@
         <v>3.32861023255814</v>
       </c>
       <c r="I347" s="0" t="n">
-        <v>0.0143667670888775</v>
+        <v>0.00897922943054841</v>
       </c>
       <c r="J347" s="0" t="n">
         <v>0.09407</v>
@@ -13515,7 +13516,7 @@
         <v>0.92</v>
       </c>
       <c r="I356" s="0" t="n">
-        <v>0.259208323859234</v>
+        <v>0.324010404824043</v>
       </c>
       <c r="J356" s="0" t="n">
         <v>0.09407</v>
@@ -13547,7 +13548,7 @@
         <v>1</v>
       </c>
       <c r="I357" s="0" t="n">
-        <v>0.0648020809648086</v>
+        <v>0.0810026012060107</v>
       </c>
       <c r="J357" s="0" t="n">
         <v>0.09407</v>
@@ -13579,7 +13580,7 @@
         <v>2.94489544186046</v>
       </c>
       <c r="I358" s="0" t="n">
-        <v>0.0864027746197448</v>
+        <v>0.0540017341373405</v>
       </c>
       <c r="J358" s="0" t="n">
         <v>0.09407</v>
@@ -13611,7 +13612,7 @@
         <v>3.39795627906976</v>
       </c>
       <c r="I359" s="0" t="n">
-        <v>0.0216006936549362</v>
+        <v>0.0135004335343351</v>
       </c>
       <c r="J359" s="0" t="n">
         <v>0.09407</v>
@@ -13643,7 +13644,7 @@
         <v>2.80410195348837</v>
       </c>
       <c r="I360" s="0" t="n">
-        <v>0.0864027746197448</v>
+        <v>0.0540017341373405</v>
       </c>
       <c r="J360" s="0" t="n">
         <v>0.09407</v>
@@ -13675,7 +13676,7 @@
         <v>3.32861023255814</v>
       </c>
       <c r="I361" s="0" t="n">
-        <v>0.0216006936549362</v>
+        <v>0.0135004335343351</v>
       </c>
       <c r="J361" s="0" t="n">
         <v>0.09407</v>
@@ -13963,7 +13964,7 @@
         <v>0.92</v>
       </c>
       <c r="I370" s="0" t="n">
-        <v>0.20913954943839</v>
+        <v>0.261424436797987</v>
       </c>
       <c r="J370" s="0" t="n">
         <v>0.09407</v>
@@ -13995,7 +13996,7 @@
         <v>1</v>
       </c>
       <c r="I371" s="0" t="n">
-        <v>0.0522848873595975</v>
+        <v>0.0653561091994968</v>
       </c>
       <c r="J371" s="0" t="n">
         <v>0.09407</v>
@@ -14027,7 +14028,7 @@
         <v>2.94489544186046</v>
       </c>
       <c r="I372" s="0" t="n">
-        <v>0.06971318314613</v>
+        <v>0.0435707394663312</v>
       </c>
       <c r="J372" s="0" t="n">
         <v>0.09407</v>
@@ -14059,7 +14060,7 @@
         <v>3.39795627906976</v>
       </c>
       <c r="I373" s="0" t="n">
-        <v>0.0174282957865325</v>
+        <v>0.0108926848665828</v>
       </c>
       <c r="J373" s="0" t="n">
         <v>0.09407</v>
@@ -14091,7 +14092,7 @@
         <v>2.80410195348837</v>
       </c>
       <c r="I374" s="0" t="n">
-        <v>0.06971318314613</v>
+        <v>0.0435707394663312</v>
       </c>
       <c r="J374" s="0" t="n">
         <v>0.09407</v>
@@ -14123,7 +14124,7 @@
         <v>3.32861023255814</v>
       </c>
       <c r="I375" s="0" t="n">
-        <v>0.0174282957865325</v>
+        <v>0.0108926848665828</v>
       </c>
       <c r="J375" s="0" t="n">
         <v>0.09407</v>
@@ -14411,7 +14412,7 @@
         <v>0.92</v>
       </c>
       <c r="I384" s="0" t="n">
-        <v>0.187329270089294</v>
+        <v>0.234161587611617</v>
       </c>
       <c r="J384" s="0" t="n">
         <v>0.09407</v>
@@ -14443,7 +14444,7 @@
         <v>1</v>
       </c>
       <c r="I385" s="0" t="n">
-        <v>0.0468323175223234</v>
+        <v>0.0585403969029043</v>
       </c>
       <c r="J385" s="0" t="n">
         <v>0.09407</v>
@@ -14475,7 +14476,7 @@
         <v>2.94489544186046</v>
       </c>
       <c r="I386" s="0" t="n">
-        <v>0.0624430900297645</v>
+        <v>0.0390269312686028</v>
       </c>
       <c r="J386" s="0" t="n">
         <v>0.09407</v>
@@ -14507,7 +14508,7 @@
         <v>3.39795627906976</v>
       </c>
       <c r="I387" s="0" t="n">
-        <v>0.0156107725074411</v>
+        <v>0.00975673281715071</v>
       </c>
       <c r="J387" s="0" t="n">
         <v>0.09407</v>
@@ -14539,7 +14540,7 @@
         <v>2.80410195348837</v>
       </c>
       <c r="I388" s="0" t="n">
-        <v>0.0624430900297645</v>
+        <v>0.0390269312686028</v>
       </c>
       <c r="J388" s="0" t="n">
         <v>0.09407</v>
@@ -14571,7 +14572,7 @@
         <v>3.32861023255814</v>
       </c>
       <c r="I389" s="0" t="n">
-        <v>0.0156107725074411</v>
+        <v>0.00975673281715071</v>
       </c>
       <c r="J389" s="0" t="n">
         <v>0.09407</v>
@@ -14859,7 +14860,7 @@
         <v>0.92</v>
       </c>
       <c r="I398" s="0" t="n">
-        <v>0.274122929818832</v>
+        <v>0.34265366227354</v>
       </c>
       <c r="J398" s="0" t="n">
         <v>0.09407</v>
@@ -14891,7 +14892,7 @@
         <v>1</v>
       </c>
       <c r="I399" s="0" t="n">
-        <v>0.068530732454708</v>
+        <v>0.085663415568385</v>
       </c>
       <c r="J399" s="0" t="n">
         <v>0.09407</v>
@@ -14923,7 +14924,7 @@
         <v>2.94489544186046</v>
       </c>
       <c r="I400" s="0" t="n">
-        <v>0.0913743099396106</v>
+        <v>0.0571089437122566</v>
       </c>
       <c r="J400" s="0" t="n">
         <v>0.09407</v>
@@ -14955,7 +14956,7 @@
         <v>3.39795627906976</v>
       </c>
       <c r="I401" s="0" t="n">
-        <v>0.0228435774849027</v>
+        <v>0.0142772359280642</v>
       </c>
       <c r="J401" s="0" t="n">
         <v>0.09407</v>
@@ -14987,7 +14988,7 @@
         <v>2.80410195348837</v>
       </c>
       <c r="I402" s="0" t="n">
-        <v>0.0913743099396106</v>
+        <v>0.0571089437122566</v>
       </c>
       <c r="J402" s="0" t="n">
         <v>0.09407</v>
@@ -15019,7 +15020,7 @@
         <v>3.32861023255814</v>
       </c>
       <c r="I403" s="0" t="n">
-        <v>0.0228435774849027</v>
+        <v>0.0142772359280642</v>
       </c>
       <c r="J403" s="0" t="n">
         <v>0.09407</v>
@@ -15243,7 +15244,7 @@
         <v>0.92</v>
       </c>
       <c r="I410" s="0" t="n">
-        <v>0.266209240509671</v>
+        <v>0.332761550637088</v>
       </c>
       <c r="J410" s="0" t="n">
         <v>0.09407</v>
@@ -15275,7 +15276,7 @@
         <v>1</v>
       </c>
       <c r="I411" s="0" t="n">
-        <v>0.0665523101274177</v>
+        <v>0.0831903876592721</v>
       </c>
       <c r="J411" s="0" t="n">
         <v>0.09407</v>
@@ -15307,7 +15308,7 @@
         <v>2.94489544186046</v>
       </c>
       <c r="I412" s="0" t="n">
-        <v>0.0887364135032236</v>
+        <v>0.0554602584395147</v>
       </c>
       <c r="J412" s="0" t="n">
         <v>0.09407</v>
@@ -15339,7 +15340,7 @@
         <v>3.39795627906976</v>
       </c>
       <c r="I413" s="0" t="n">
-        <v>0.0221841033758059</v>
+        <v>0.0138650646098787</v>
       </c>
       <c r="J413" s="0" t="n">
         <v>0.09407</v>
@@ -15371,7 +15372,7 @@
         <v>2.80410195348837</v>
       </c>
       <c r="I414" s="0" t="n">
-        <v>0.0887364135032236</v>
+        <v>0.0554602584395147</v>
       </c>
       <c r="J414" s="0" t="n">
         <v>0.09407</v>
@@ -15403,7 +15404,7 @@
         <v>3.32861023255814</v>
       </c>
       <c r="I415" s="0" t="n">
-        <v>0.0221841033758059</v>
+        <v>0.0138650646098787</v>
       </c>
       <c r="J415" s="0" t="n">
         <v>0.09407</v>
@@ -15627,7 +15628,7 @@
         <v>0.92</v>
       </c>
       <c r="I422" s="0" t="n">
-        <v>0.271354925962092</v>
+        <v>0.339193657452615</v>
       </c>
       <c r="J422" s="0" t="n">
         <v>0.09407</v>
@@ -15659,7 +15660,7 @@
         <v>1</v>
       </c>
       <c r="I423" s="0" t="n">
-        <v>0.0678387314905229</v>
+        <v>0.0847984143631537</v>
       </c>
       <c r="J423" s="0" t="n">
         <v>0.09407</v>
@@ -15691,7 +15692,7 @@
         <v>2.96333246511628</v>
       </c>
       <c r="I424" s="0" t="n">
-        <v>0.0904516419873639</v>
+        <v>0.0565322762421024</v>
       </c>
       <c r="J424" s="0" t="n">
         <v>0.09407</v>
@@ -15723,7 +15724,7 @@
         <v>3.41922976744186</v>
       </c>
       <c r="I425" s="0" t="n">
-        <v>0.022612910496841</v>
+        <v>0.0141330690605256</v>
       </c>
       <c r="J425" s="0" t="n">
         <v>0.09407</v>
@@ -15755,7 +15756,7 @@
         <v>2.82165751495016</v>
       </c>
       <c r="I426" s="0" t="n">
-        <v>0.0904516419873639</v>
+        <v>0.0565322762421024</v>
       </c>
       <c r="J426" s="0" t="n">
         <v>0.09407</v>
@@ -15787,7 +15788,7 @@
         <v>3.34944956810631</v>
       </c>
       <c r="I427" s="0" t="n">
-        <v>0.022612910496841</v>
+        <v>0.0141330690605256</v>
       </c>
       <c r="J427" s="0" t="n">
         <v>0.09407</v>
@@ -16075,7 +16076,7 @@
         <v>0.92</v>
       </c>
       <c r="I436" s="0" t="n">
-        <v>0.217709009342806</v>
+        <v>0.272136261678507</v>
       </c>
       <c r="J436" s="0" t="n">
         <v>0.09407</v>
@@ -16107,7 +16108,7 @@
         <v>1</v>
       </c>
       <c r="I437" s="0" t="n">
-        <v>0.0544272523357015</v>
+        <v>0.0680340654196268</v>
       </c>
       <c r="J437" s="0" t="n">
         <v>0.09407</v>
@@ -16139,7 +16140,7 @@
         <v>2.94489544186046</v>
       </c>
       <c r="I438" s="0" t="n">
-        <v>0.0725696697809353</v>
+        <v>0.0453560436130846</v>
       </c>
       <c r="J438" s="0" t="n">
         <v>0.09407</v>
@@ -16171,7 +16172,7 @@
         <v>3.39795627906976</v>
       </c>
       <c r="I439" s="0" t="n">
-        <v>0.0181424174452338</v>
+        <v>0.0113390109032711</v>
       </c>
       <c r="J439" s="0" t="n">
         <v>0.09407</v>
@@ -16203,7 +16204,7 @@
         <v>2.80410195348837</v>
       </c>
       <c r="I440" s="0" t="n">
-        <v>0.0725696697809353</v>
+        <v>0.0453560436130846</v>
       </c>
       <c r="J440" s="0" t="n">
         <v>0.09407</v>
@@ -16235,7 +16236,7 @@
         <v>3.32861023255814</v>
       </c>
       <c r="I441" s="0" t="n">
-        <v>0.0181424174452338</v>
+        <v>0.0113390109032711</v>
       </c>
       <c r="J441" s="0" t="n">
         <v>0.09407</v>
@@ -16523,7 +16524,7 @@
         <v>0.92</v>
       </c>
       <c r="I450" s="0" t="n">
-        <v>0.230799520626363</v>
+        <v>0.288499400782954</v>
       </c>
       <c r="J450" s="0" t="n">
         <v>0.09407</v>
@@ -16555,7 +16556,7 @@
         <v>1</v>
       </c>
       <c r="I451" s="0" t="n">
-        <v>0.0576998801565907</v>
+        <v>0.0721248501957384</v>
       </c>
       <c r="J451" s="0" t="n">
         <v>0.09407</v>
@@ -16587,7 +16588,7 @@
         <v>2.94489544186046</v>
       </c>
       <c r="I452" s="0" t="n">
-        <v>0.076933173542121</v>
+        <v>0.0480832334638256</v>
       </c>
       <c r="J452" s="0" t="n">
         <v>0.09407</v>
@@ -16619,7 +16620,7 @@
         <v>3.39795627906976</v>
       </c>
       <c r="I453" s="0" t="n">
-        <v>0.0192332933855302</v>
+        <v>0.0120208083659564</v>
       </c>
       <c r="J453" s="0" t="n">
         <v>0.09407</v>
@@ -16651,7 +16652,7 @@
         <v>2.80410195348837</v>
       </c>
       <c r="I454" s="0" t="n">
-        <v>0.076933173542121</v>
+        <v>0.0480832334638256</v>
       </c>
       <c r="J454" s="0" t="n">
         <v>0.09407</v>
@@ -16683,7 +16684,7 @@
         <v>3.32861023255814</v>
       </c>
       <c r="I455" s="0" t="n">
-        <v>0.0192332933855302</v>
+        <v>0.0120208083659564</v>
       </c>
       <c r="J455" s="0" t="n">
         <v>0.09407</v>
@@ -16971,7 +16972,7 @@
         <v>0.92</v>
       </c>
       <c r="I464" s="0" t="n">
-        <v>0.138113166392111</v>
+        <v>0.172641457990139</v>
       </c>
       <c r="J464" s="0" t="n">
         <v>0.09407</v>
@@ -17003,7 +17004,7 @@
         <v>1</v>
       </c>
       <c r="I465" s="0" t="n">
-        <v>0.0345282915980278</v>
+        <v>0.0431603644975348</v>
       </c>
       <c r="J465" s="0" t="n">
         <v>0.09407</v>
@@ -17035,7 +17036,7 @@
         <v>2.94489544186046</v>
       </c>
       <c r="I466" s="0" t="n">
-        <v>0.0460377221307038</v>
+        <v>0.0287735763316899</v>
       </c>
       <c r="J466" s="0" t="n">
         <v>0.09407</v>
@@ -17067,7 +17068,7 @@
         <v>3.39795627906976</v>
       </c>
       <c r="I467" s="0" t="n">
-        <v>0.0115094305326759</v>
+        <v>0.00719339408292246</v>
       </c>
       <c r="J467" s="0" t="n">
         <v>0.09407</v>
@@ -17099,7 +17100,7 @@
         <v>2.80410195348837</v>
       </c>
       <c r="I468" s="0" t="n">
-        <v>0.0460377221307038</v>
+        <v>0.0287735763316899</v>
       </c>
       <c r="J468" s="0" t="n">
         <v>0.09407</v>
@@ -17131,7 +17132,7 @@
         <v>3.32861023255814</v>
       </c>
       <c r="I469" s="0" t="n">
-        <v>0.0115094305326759</v>
+        <v>0.00719339408292246</v>
       </c>
       <c r="J469" s="0" t="n">
         <v>0.09407</v>
@@ -17419,7 +17420,7 @@
         <v>0.92</v>
       </c>
       <c r="I478" s="0" t="n">
-        <v>0.20125902836401</v>
+        <v>0.251573785455013</v>
       </c>
       <c r="J478" s="0" t="n">
         <v>0.09407</v>
@@ -17451,7 +17452,7 @@
         <v>1</v>
       </c>
       <c r="I479" s="0" t="n">
-        <v>0.0503147570910026</v>
+        <v>0.0628934463637533</v>
       </c>
       <c r="J479" s="0" t="n">
         <v>0.09407</v>
@@ -17483,7 +17484,7 @@
         <v>2.80410195348837</v>
       </c>
       <c r="I480" s="0" t="n">
-        <v>0.134172685576007</v>
+        <v>0.0838579284850043</v>
       </c>
       <c r="J480" s="0" t="n">
         <v>0.09407</v>
@@ -17515,7 +17516,7 @@
         <v>3.32861023255814</v>
       </c>
       <c r="I481" s="0" t="n">
-        <v>0.0335431713940017</v>
+        <v>0.0209644821212511</v>
       </c>
       <c r="J481" s="0" t="n">
         <v>0.09407</v>
@@ -17803,7 +17804,7 @@
         <v>0.92</v>
       </c>
       <c r="I490" s="0" t="n">
-        <v>0.118670275247431</v>
+        <v>0.148337844059289</v>
       </c>
       <c r="J490" s="0" t="n">
         <v>0.09407</v>
@@ -17835,7 +17836,7 @@
         <v>1</v>
       </c>
       <c r="I491" s="0" t="n">
-        <v>0.0296675688118578</v>
+        <v>0.0370844610148223</v>
       </c>
       <c r="J491" s="0" t="n">
         <v>0.09407</v>
@@ -17867,7 +17868,7 @@
         <v>2.80410195348837</v>
       </c>
       <c r="I492" s="0" t="n">
-        <v>0.0791135168316209</v>
+        <v>0.049445948019763</v>
       </c>
       <c r="J492" s="0" t="n">
         <v>0.09407</v>
@@ -17899,7 +17900,7 @@
         <v>3.32861023255814</v>
       </c>
       <c r="I493" s="0" t="n">
-        <v>0.0197783792079052</v>
+        <v>0.0123614870049408</v>
       </c>
       <c r="J493" s="0" t="n">
         <v>0.09407</v>
@@ -18187,7 +18188,7 @@
         <v>0.92</v>
       </c>
       <c r="I502" s="0" t="n">
-        <v>0.163733163011394</v>
+        <v>0.204666453764242</v>
       </c>
       <c r="J502" s="0" t="n">
         <v>0.09407</v>
@@ -18219,7 +18220,7 @@
         <v>1</v>
       </c>
       <c r="I503" s="0" t="n">
-        <v>0.0409332907528485</v>
+        <v>0.0511666134410606</v>
       </c>
       <c r="J503" s="0" t="n">
         <v>0.09407</v>
@@ -18251,7 +18252,7 @@
         <v>3.24147013953488</v>
       </c>
       <c r="I504" s="0" t="n">
-        <v>0.109155442007596</v>
+        <v>0.0682221512547475</v>
       </c>
       <c r="J504" s="0" t="n">
         <v>0.09407</v>
@@ -18283,7 +18284,7 @@
         <v>3.36378976744186</v>
       </c>
       <c r="I505" s="0" t="n">
-        <v>0.027288860501899</v>
+        <v>0.0170555378136869</v>
       </c>
       <c r="J505" s="0" t="n">
         <v>0.09407</v>
@@ -18571,7 +18572,7 @@
         <v>0.92</v>
       </c>
       <c r="I514" s="0" t="n">
-        <v>0.204709639419121</v>
+        <v>0.255887049273901</v>
       </c>
       <c r="J514" s="0" t="n">
         <v>0.09407</v>
@@ -18603,7 +18604,7 @@
         <v>1</v>
       </c>
       <c r="I515" s="0" t="n">
-        <v>0.0511774098547802</v>
+        <v>0.0639717623184753</v>
       </c>
       <c r="J515" s="0" t="n">
         <v>0.09407</v>
@@ -18635,7 +18636,7 @@
         <v>2.80410195348837</v>
       </c>
       <c r="I516" s="0" t="n">
-        <v>0.136473092946081</v>
+        <v>0.0852956830913003</v>
       </c>
       <c r="J516" s="0" t="n">
         <v>0.09407</v>
@@ -18667,7 +18668,7 @@
         <v>3.32861023255814</v>
       </c>
       <c r="I517" s="0" t="n">
-        <v>0.0341182732365201</v>
+        <v>0.0213239207728251</v>
       </c>
       <c r="J517" s="0" t="n">
         <v>0.09407</v>
@@ -18955,7 +18956,7 @@
         <v>0.92</v>
       </c>
       <c r="I526" s="0" t="n">
-        <v>0.190118914279965</v>
+        <v>0.237648642849956</v>
       </c>
       <c r="J526" s="0" t="n">
         <v>0.09407</v>
@@ -18987,7 +18988,7 @@
         <v>1</v>
       </c>
       <c r="I527" s="0" t="n">
-        <v>0.0475297285699913</v>
+        <v>0.0594121607124891</v>
       </c>
       <c r="J527" s="0" t="n">
         <v>0.09407</v>
@@ -19019,7 +19020,7 @@
         <v>2.80410195348837</v>
       </c>
       <c r="I528" s="0" t="n">
-        <v>0.12674594285331</v>
+        <v>0.0792162142833188</v>
       </c>
       <c r="J528" s="0" t="n">
         <v>0.09407</v>
@@ -19051,7 +19052,7 @@
         <v>3.32861023255814</v>
       </c>
       <c r="I529" s="0" t="n">
-        <v>0.0316864857133275</v>
+        <v>0.0198040535708297</v>
       </c>
       <c r="J529" s="0" t="n">
         <v>0.09407</v>
@@ -19339,7 +19340,7 @@
         <v>0.92</v>
       </c>
       <c r="I538" s="0" t="n">
-        <v>0.20522388370863</v>
+        <v>0.256529854635788</v>
       </c>
       <c r="J538" s="0" t="n">
         <v>0.09407</v>
@@ -19371,7 +19372,7 @@
         <v>1</v>
       </c>
       <c r="I539" s="0" t="n">
-        <v>0.0513059709271576</v>
+        <v>0.064132463658947</v>
       </c>
       <c r="J539" s="0" t="n">
         <v>0.09407</v>
@@ -19403,7 +19404,7 @@
         <v>3.27439423255813</v>
       </c>
       <c r="I540" s="0" t="n">
-        <v>0.13681592247242</v>
+        <v>0.0855099515452626</v>
       </c>
       <c r="J540" s="0" t="n">
         <v>0.09407</v>
@@ -19435,7 +19436,7 @@
         <v>3.39795627906976</v>
       </c>
       <c r="I541" s="0" t="n">
-        <v>0.034203980618105</v>
+        <v>0.0213774878863157</v>
       </c>
       <c r="J541" s="0" t="n">
         <v>0.09407</v>
@@ -19723,7 +19724,7 @@
         <v>0.92</v>
       </c>
       <c r="I550" s="0" t="n">
-        <v>0.197588463387702</v>
+        <v>0.246985579234627</v>
       </c>
       <c r="J550" s="0" t="n">
         <v>0.09407</v>
@@ -19755,7 +19756,7 @@
         <v>1</v>
       </c>
       <c r="I551" s="0" t="n">
-        <v>0.0493971158469254</v>
+        <v>0.0617463948086567</v>
       </c>
       <c r="J551" s="0" t="n">
         <v>0.09407</v>
@@ -19787,7 +19788,7 @@
         <v>3.27439423255813</v>
       </c>
       <c r="I552" s="0" t="n">
-        <v>0.131725642258468</v>
+        <v>0.0823285264115423</v>
       </c>
       <c r="J552" s="0" t="n">
         <v>0.09407</v>
@@ -19819,7 +19820,7 @@
         <v>3.39795627906976</v>
       </c>
       <c r="I553" s="0" t="n">
-        <v>0.0329314105646169</v>
+        <v>0.0205821316028856</v>
       </c>
       <c r="J553" s="0" t="n">
         <v>0.09407</v>
@@ -20107,7 +20108,7 @@
         <v>0.92</v>
       </c>
       <c r="I562" s="0" t="n">
-        <v>0.211791935889588</v>
+        <v>0.264739919861985</v>
       </c>
       <c r="J562" s="0" t="n">
         <v>0.09407</v>
@@ -20139,7 +20140,7 @@
         <v>1</v>
       </c>
       <c r="I563" s="0" t="n">
-        <v>0.052947983972397</v>
+        <v>0.0661849799654963</v>
       </c>
       <c r="J563" s="0" t="n">
         <v>0.09407</v>
@@ -20171,7 +20172,7 @@
         <v>3.27439423255813</v>
       </c>
       <c r="I564" s="0" t="n">
-        <v>0.141194623926392</v>
+        <v>0.0882466399539951</v>
       </c>
       <c r="J564" s="0" t="n">
         <v>0.09407</v>
@@ -20203,7 +20204,7 @@
         <v>3.39795627906976</v>
       </c>
       <c r="I565" s="0" t="n">
-        <v>0.035298655981598</v>
+        <v>0.0220616599884988</v>
       </c>
       <c r="J565" s="0" t="n">
         <v>0.09407</v>
@@ -20491,7 +20492,7 @@
         <v>0.92</v>
       </c>
       <c r="I574" s="0" t="n">
-        <v>0.185743867286039</v>
+        <v>0.232179834107549</v>
       </c>
       <c r="J574" s="0" t="n">
         <v>0.09407</v>
@@ -20523,7 +20524,7 @@
         <v>1</v>
       </c>
       <c r="I575" s="0" t="n">
-        <v>0.0464359668215098</v>
+        <v>0.0580449585268872</v>
       </c>
       <c r="J575" s="0" t="n">
         <v>0.09407</v>
@@ -20555,7 +20556,7 @@
         <v>2.80410195348837</v>
       </c>
       <c r="I576" s="0" t="n">
-        <v>0.123829244857359</v>
+        <v>0.0773932780358496</v>
       </c>
       <c r="J576" s="0" t="n">
         <v>0.09407</v>
@@ -20587,7 +20588,7 @@
         <v>3.32861023255814</v>
       </c>
       <c r="I577" s="0" t="n">
-        <v>0.0309573112143398</v>
+        <v>0.0193483195089624</v>
       </c>
       <c r="J577" s="0" t="n">
         <v>0.09407</v>
@@ -20875,7 +20876,7 @@
         <v>0.92</v>
       </c>
       <c r="I586" s="0" t="n">
-        <v>0.22072626726588</v>
+        <v>0.27590783408235</v>
       </c>
       <c r="J586" s="0" t="n">
         <v>0.09407</v>
@@ -20907,7 +20908,7 @@
         <v>1</v>
       </c>
       <c r="I587" s="0" t="n">
-        <v>0.0551815668164701</v>
+        <v>0.0689769585205876</v>
       </c>
       <c r="J587" s="0" t="n">
         <v>0.09407</v>
@@ -20939,7 +20940,7 @@
         <v>3.27439423255813</v>
       </c>
       <c r="I588" s="0" t="n">
-        <v>0.14715084484392</v>
+        <v>0.0919692780274501</v>
       </c>
       <c r="J588" s="0" t="n">
         <v>0.09407</v>
@@ -20971,7 +20972,7 @@
         <v>3.39795627906976</v>
       </c>
       <c r="I589" s="0" t="n">
-        <v>0.0367877112109801</v>
+        <v>0.0229923195068625</v>
       </c>
       <c r="J589" s="0" t="n">
         <v>0.09407</v>
@@ -21259,7 +21260,7 @@
         <v>0.92</v>
       </c>
       <c r="I598" s="0" t="n">
-        <v>0.207951411921868</v>
+        <v>0.259939264902334</v>
       </c>
       <c r="J598" s="0" t="n">
         <v>0.09407</v>
@@ -21291,7 +21292,7 @@
         <v>1</v>
       </c>
       <c r="I599" s="0" t="n">
-        <v>0.0519878529804669</v>
+        <v>0.0649848162255836</v>
       </c>
       <c r="J599" s="0" t="n">
         <v>0.09407</v>
@@ -21323,7 +21324,7 @@
         <v>3.27439423255813</v>
       </c>
       <c r="I600" s="0" t="n">
-        <v>0.138634274614578</v>
+        <v>0.0866464216341115</v>
       </c>
       <c r="J600" s="0" t="n">
         <v>0.09407</v>
@@ -21355,7 +21356,7 @@
         <v>3.39795627906976</v>
       </c>
       <c r="I601" s="0" t="n">
-        <v>0.0346585686536446</v>
+        <v>0.0216616054085279</v>
       </c>
       <c r="J601" s="0" t="n">
         <v>0.09407</v>
@@ -21643,7 +21644,7 @@
         <v>0.92</v>
       </c>
       <c r="I610" s="0" t="n">
-        <v>0.213893011308542</v>
+        <v>0.267366264135677</v>
       </c>
       <c r="J610" s="0" t="n">
         <v>0.09407</v>
@@ -21675,7 +21676,7 @@
         <v>1</v>
       </c>
       <c r="I611" s="0" t="n">
-        <v>0.0534732528271355</v>
+        <v>0.0668415660339193</v>
       </c>
       <c r="J611" s="0" t="n">
         <v>0.09407</v>
@@ -21707,7 +21708,7 @@
         <v>2.80410195348837</v>
       </c>
       <c r="I612" s="0" t="n">
-        <v>0.142595340872361</v>
+        <v>0.0891220880452258</v>
       </c>
       <c r="J612" s="0" t="n">
         <v>0.09407</v>
@@ -21739,7 +21740,7 @@
         <v>3.32861023255814</v>
       </c>
       <c r="I613" s="0" t="n">
-        <v>0.0356488352180903</v>
+        <v>0.0222805220113064</v>
       </c>
       <c r="J613" s="0" t="n">
         <v>0.09407</v>
@@ -22027,7 +22028,7 @@
         <v>0.92</v>
       </c>
       <c r="I622" s="0" t="n">
-        <v>0.20648279662269</v>
+        <v>0.258103495778362</v>
       </c>
       <c r="J622" s="0" t="n">
         <v>0.09407</v>
@@ -22059,7 +22060,7 @@
         <v>1</v>
       </c>
       <c r="I623" s="0" t="n">
-        <v>0.0516206991556724</v>
+        <v>0.0645258739445905</v>
       </c>
       <c r="J623" s="0" t="n">
         <v>0.09407</v>
@@ -22091,7 +22092,7 @@
         <v>3.27439423255813</v>
       </c>
       <c r="I624" s="0" t="n">
-        <v>0.13765519774846</v>
+        <v>0.0860344985927873</v>
       </c>
       <c r="J624" s="0" t="n">
         <v>0.09407</v>
@@ -22123,7 +22124,7 @@
         <v>3.39795627906976</v>
       </c>
       <c r="I625" s="0" t="n">
-        <v>0.0344137994371149</v>
+        <v>0.0215086246481968</v>
       </c>
       <c r="J625" s="0" t="n">
         <v>0.09407</v>
@@ -22411,7 +22412,7 @@
         <v>0.92</v>
       </c>
       <c r="I634" s="0" t="n">
-        <v>0.201336500649872</v>
+        <v>0.25167062581234</v>
       </c>
       <c r="J634" s="0" t="n">
         <v>0.09407</v>
@@ -22443,7 +22444,7 @@
         <v>1</v>
       </c>
       <c r="I635" s="0" t="n">
-        <v>0.0503341251624679</v>
+        <v>0.0629176564530849</v>
       </c>
       <c r="J635" s="0" t="n">
         <v>0.09407</v>
@@ -22475,7 +22476,7 @@
         <v>3.27439423255813</v>
       </c>
       <c r="I636" s="0" t="n">
-        <v>0.134224333766581</v>
+        <v>0.0838902086041132</v>
       </c>
       <c r="J636" s="0" t="n">
         <v>0.09407</v>
@@ -22507,7 +22508,7 @@
         <v>3.39795627906976</v>
       </c>
       <c r="I637" s="0" t="n">
-        <v>0.0335560834416453</v>
+        <v>0.0209725521510283</v>
       </c>
       <c r="J637" s="0" t="n">
         <v>0.09407</v>
@@ -22795,7 +22796,7 @@
         <v>0.92</v>
       </c>
       <c r="I646" s="0" t="n">
-        <v>0.223413521772986</v>
+        <v>0.279266902216232</v>
       </c>
       <c r="J646" s="0" t="n">
         <v>0.09407</v>
@@ -22827,7 +22828,7 @@
         <v>1</v>
       </c>
       <c r="I647" s="0" t="n">
-        <v>0.0558533804432465</v>
+        <v>0.0698167255540581</v>
       </c>
       <c r="J647" s="0" t="n">
         <v>0.09407</v>
@@ -22859,7 +22860,7 @@
         <v>3.27439423255813</v>
       </c>
       <c r="I648" s="0" t="n">
-        <v>0.148942347848657</v>
+        <v>0.0930889674054108</v>
       </c>
       <c r="J648" s="0" t="n">
         <v>0.09407</v>
@@ -22891,7 +22892,7 @@
         <v>3.39795627906976</v>
       </c>
       <c r="I649" s="0" t="n">
-        <v>0.0372355869621643</v>
+        <v>0.0232722418513527</v>
       </c>
       <c r="J649" s="0" t="n">
         <v>0.09407</v>
@@ -23179,7 +23180,7 @@
         <v>0.92</v>
       </c>
       <c r="I658" s="0" t="n">
-        <v>0.207105983610884</v>
+        <v>0.258882479513604</v>
       </c>
       <c r="J658" s="0" t="n">
         <v>0.09407</v>
@@ -23211,7 +23212,7 @@
         <v>1</v>
       </c>
       <c r="I659" s="0" t="n">
-        <v>0.0517764959027209</v>
+        <v>0.0647206198784011</v>
       </c>
       <c r="J659" s="0" t="n">
         <v>0.09407</v>
@@ -23243,7 +23244,7 @@
         <v>3.27439423255813</v>
       </c>
       <c r="I660" s="0" t="n">
-        <v>0.138070655740589</v>
+        <v>0.0862941598378681</v>
       </c>
       <c r="J660" s="0" t="n">
         <v>0.09407</v>
@@ -23275,7 +23276,7 @@
         <v>3.39795627906976</v>
       </c>
       <c r="I661" s="0" t="n">
-        <v>0.0345176639351473</v>
+        <v>0.021573539959467</v>
       </c>
       <c r="J661" s="0" t="n">
         <v>0.09407</v>
@@ -23563,7 +23564,7 @@
         <v>0.92</v>
       </c>
       <c r="I670" s="0" t="n">
-        <v>0.140568400831222</v>
+        <v>0.175710501039027</v>
       </c>
       <c r="J670" s="0" t="n">
         <v>0.09407</v>
@@ -23595,7 +23596,7 @@
         <v>1</v>
       </c>
       <c r="I671" s="0" t="n">
-        <v>0.0351421002078054</v>
+        <v>0.0439276252597567</v>
       </c>
       <c r="J671" s="0" t="n">
         <v>0.09407</v>
@@ -23627,7 +23628,7 @@
         <v>2.94489544186046</v>
       </c>
       <c r="I672" s="0" t="n">
-        <v>0.0937122672208143</v>
+        <v>0.0585701670130089</v>
       </c>
       <c r="J672" s="0" t="n">
         <v>0.09407</v>
@@ -23659,7 +23660,7 @@
         <v>3.39795627906976</v>
       </c>
       <c r="I673" s="0" t="n">
-        <v>0.0234280668052036</v>
+        <v>0.0146425417532522</v>
       </c>
       <c r="J673" s="0" t="n">
         <v>0.09407</v>
@@ -23947,7 +23948,7 @@
         <v>0.92</v>
       </c>
       <c r="I682" s="0" t="n">
-        <v>0.154197790770863</v>
+        <v>0.192747238463579</v>
       </c>
       <c r="J682" s="0" t="n">
         <v>0.09407</v>
@@ -23979,7 +23980,7 @@
         <v>1</v>
       </c>
       <c r="I683" s="0" t="n">
-        <v>0.0385494476927158</v>
+        <v>0.0481868096158947</v>
       </c>
       <c r="J683" s="0" t="n">
         <v>0.09407</v>
@@ -24011,7 +24012,7 @@
         <v>2.80410195348837</v>
       </c>
       <c r="I684" s="0" t="n">
-        <v>0.102798527180575</v>
+        <v>0.0642490794878596</v>
       </c>
       <c r="J684" s="0" t="n">
         <v>0.09407</v>
@@ -24043,7 +24044,7 @@
         <v>3.32861023255814</v>
       </c>
       <c r="I685" s="0" t="n">
-        <v>0.0256996317951439</v>
+        <v>0.0160622698719649</v>
       </c>
       <c r="J685" s="0" t="n">
         <v>0.09407</v>
@@ -24331,7 +24332,7 @@
         <v>0.92</v>
       </c>
       <c r="I694" s="0" t="n">
-        <v>0.196224257690944</v>
+        <v>0.245280322113679</v>
       </c>
       <c r="J694" s="0" t="n">
         <v>0.09407</v>
@@ -24363,7 +24364,7 @@
         <v>1</v>
       </c>
       <c r="I695" s="0" t="n">
-        <v>0.0490560644227359</v>
+        <v>0.0613200805284199</v>
       </c>
       <c r="J695" s="0" t="n">
         <v>0.09407</v>
@@ -24395,7 +24396,7 @@
         <v>2.80410195348837</v>
       </c>
       <c r="I696" s="0" t="n">
-        <v>0.130816171793962</v>
+        <v>0.0817601073712265</v>
       </c>
       <c r="J696" s="0" t="n">
         <v>0.09407</v>
@@ -24427,7 +24428,7 @@
         <v>3.32861023255814</v>
       </c>
       <c r="I697" s="0" t="n">
-        <v>0.0327040429484906</v>
+        <v>0.0204400268428066</v>
       </c>
       <c r="J697" s="0" t="n">
         <v>0.09407</v>
@@ -24715,7 +24716,7 @@
         <v>0.92</v>
       </c>
       <c r="I706" s="0" t="n">
-        <v>0.109101201770615</v>
+        <v>0.136376502213269</v>
       </c>
       <c r="J706" s="0" t="n">
         <v>0.09407</v>
@@ -24747,7 +24748,7 @@
         <v>1</v>
       </c>
       <c r="I707" s="0" t="n">
-        <v>0.0272753004426539</v>
+        <v>0.0340941255533173</v>
       </c>
       <c r="J707" s="0" t="n">
         <v>0.09407</v>
@@ -24779,7 +24780,7 @@
         <v>2.89517134883721</v>
       </c>
       <c r="I708" s="0" t="n">
-        <v>0.0727341345137436</v>
+        <v>0.0454588340710898</v>
       </c>
       <c r="J708" s="0" t="n">
         <v>0.09407</v>
@@ -24811,7 +24812,7 @@
         <v>3.34058232558139</v>
       </c>
       <c r="I709" s="0" t="n">
-        <v>0.0181835336284359</v>
+        <v>0.0113647085177724</v>
       </c>
       <c r="J709" s="0" t="n">
         <v>0.09407</v>
@@ -25099,7 +25100,7 @@
         <v>0.92</v>
       </c>
       <c r="I718" s="0" t="n">
-        <v>0.106209554281969</v>
+        <v>0.132761942852461</v>
       </c>
       <c r="J718" s="0" t="n">
         <v>0.09407</v>
@@ -25131,7 +25132,7 @@
         <v>1</v>
       </c>
       <c r="I719" s="0" t="n">
-        <v>0.0265523885704921</v>
+        <v>0.0331904857131151</v>
       </c>
       <c r="J719" s="0" t="n">
         <v>0.09407</v>
@@ -25163,7 +25164,7 @@
         <v>2.89517134883721</v>
       </c>
       <c r="I720" s="0" t="n">
-        <v>0.0708063695213123</v>
+        <v>0.0442539809508202</v>
       </c>
       <c r="J720" s="0" t="n">
         <v>0.09407</v>
@@ -25195,7 +25196,7 @@
         <v>3.34058232558139</v>
       </c>
       <c r="I721" s="0" t="n">
-        <v>0.0177015923803281</v>
+        <v>0.0110634952377051</v>
       </c>
       <c r="J721" s="0" t="n">
         <v>0.09407</v>
@@ -25483,7 +25484,7 @@
         <v>0.92</v>
       </c>
       <c r="I730" s="0" t="n">
-        <v>0.064333446024856</v>
+        <v>0.08041680753107</v>
       </c>
       <c r="J730" s="0" t="n">
         <v>0.09407</v>
@@ -25515,7 +25516,7 @@
         <v>1</v>
       </c>
       <c r="I731" s="0" t="n">
-        <v>0.016083361506214</v>
+        <v>0.0201042018827675</v>
       </c>
       <c r="J731" s="0" t="n">
         <v>0.09407</v>
@@ -25547,7 +25548,7 @@
         <v>2.89517134883721</v>
       </c>
       <c r="I732" s="0" t="n">
-        <v>0.0428889640165707</v>
+        <v>0.0268056025103567</v>
       </c>
       <c r="J732" s="0" t="n">
         <v>0.09407</v>
@@ -25579,7 +25580,7 @@
         <v>3.34058232558139</v>
       </c>
       <c r="I733" s="0" t="n">
-        <v>0.0107222410041427</v>
+        <v>0.00670140062758917</v>
       </c>
       <c r="J733" s="0" t="n">
         <v>0.09407</v>
@@ -25867,7 +25868,7 @@
         <v>0.92</v>
       </c>
       <c r="I742" s="0" t="n">
-        <v>0.0899914397954887</v>
+        <v>0.112489299744361</v>
       </c>
       <c r="J742" s="0" t="n">
         <v>0.09407</v>
@@ -25899,7 +25900,7 @@
         <v>1</v>
       </c>
       <c r="I743" s="0" t="n">
-        <v>0.0224978599488722</v>
+        <v>0.0281223249360902</v>
       </c>
       <c r="J743" s="0" t="n">
         <v>0.09407</v>
@@ -25931,7 +25932,7 @@
         <v>2.89517134883721</v>
       </c>
       <c r="I744" s="0" t="n">
-        <v>0.0599942931969925</v>
+        <v>0.0374964332481203</v>
       </c>
       <c r="J744" s="0" t="n">
         <v>0.09407</v>
@@ -25963,7 +25964,7 @@
         <v>3.34058232558139</v>
       </c>
       <c r="I745" s="0" t="n">
-        <v>0.0149985732992481</v>
+        <v>0.00937410831203007</v>
       </c>
       <c r="J745" s="0" t="n">
         <v>0.09407</v>
@@ -26251,7 +26252,7 @@
         <v>0.92</v>
       </c>
       <c r="I754" s="0" t="n">
-        <v>0.0789988057000888</v>
+        <v>0.0987485071251109</v>
       </c>
       <c r="J754" s="0" t="n">
         <v>0.09407</v>
@@ -26283,7 +26284,7 @@
         <v>1</v>
       </c>
       <c r="I755" s="0" t="n">
-        <v>0.0197497014250222</v>
+        <v>0.0246871267812777</v>
       </c>
       <c r="J755" s="0" t="n">
         <v>0.09407</v>
@@ -26315,7 +26316,7 @@
         <v>2.89517134883721</v>
       </c>
       <c r="I756" s="0" t="n">
-        <v>0.0526658704667258</v>
+        <v>0.0329161690417036</v>
       </c>
       <c r="J756" s="0" t="n">
         <v>0.09407</v>
@@ -26347,7 +26348,7 @@
         <v>3.34058232558139</v>
       </c>
       <c r="I757" s="0" t="n">
-        <v>0.0131664676166815</v>
+        <v>0.00822904226042591</v>
       </c>
       <c r="J757" s="0" t="n">
         <v>0.09407</v>
@@ -26635,7 +26636,7 @@
         <v>0.92</v>
       </c>
       <c r="I766" s="0" t="n">
-        <v>0.106273364076072</v>
+        <v>0.13284170509509</v>
       </c>
       <c r="J766" s="0" t="n">
         <v>0.09407</v>
@@ -26667,7 +26668,7 @@
         <v>1</v>
       </c>
       <c r="I767" s="0" t="n">
-        <v>0.0265683410190179</v>
+        <v>0.0332104262737724</v>
       </c>
       <c r="J767" s="0" t="n">
         <v>0.09407</v>
@@ -26699,7 +26700,7 @@
         <v>2.89517134883721</v>
       </c>
       <c r="I768" s="0" t="n">
-        <v>0.0708489093840478</v>
+        <v>0.0442805683650299</v>
       </c>
       <c r="J768" s="0" t="n">
         <v>0.09407</v>
@@ -26731,7 +26732,7 @@
         <v>3.34058232558139</v>
       </c>
       <c r="I769" s="0" t="n">
-        <v>0.017712227346012</v>
+        <v>0.0110701420912575</v>
       </c>
       <c r="J769" s="0" t="n">
         <v>0.09407</v>
@@ -27019,7 +27020,7 @@
         <v>0.92</v>
       </c>
       <c r="I778" s="0" t="n">
-        <v>0.0985070693521658</v>
+        <v>0.123133836690207</v>
       </c>
       <c r="J778" s="0" t="n">
         <v>0.09407</v>
@@ -27051,7 +27052,7 @@
         <v>1</v>
       </c>
       <c r="I779" s="0" t="n">
-        <v>0.0246267673380415</v>
+        <v>0.0307834591725518</v>
       </c>
       <c r="J779" s="0" t="n">
         <v>0.09407</v>
@@ -27083,7 +27084,7 @@
         <v>2.77281655813953</v>
       </c>
       <c r="I780" s="0" t="n">
-        <v>0.0656713795681105</v>
+        <v>0.0410446122300691</v>
       </c>
       <c r="J780" s="0" t="n">
         <v>0.09407</v>
@@ -27115,7 +27116,7 @@
         <v>3.19940372093023</v>
       </c>
       <c r="I781" s="0" t="n">
-        <v>0.0164178448920276</v>
+        <v>0.0102611530575173</v>
       </c>
       <c r="J781" s="0" t="n">
         <v>0.09407</v>
@@ -27403,7 +27404,7 @@
         <v>0.92</v>
       </c>
       <c r="I790" s="0" t="n">
-        <v>0.0974997796510056</v>
+        <v>0.121874724563757</v>
       </c>
       <c r="J790" s="0" t="n">
         <v>0.09407</v>
@@ -27435,7 +27436,7 @@
         <v>1</v>
       </c>
       <c r="I791" s="0" t="n">
-        <v>0.0243749449127514</v>
+        <v>0.0304686811409392</v>
       </c>
       <c r="J791" s="0" t="n">
         <v>0.09407</v>
@@ -27467,7 +27468,7 @@
         <v>2.89517134883721</v>
       </c>
       <c r="I792" s="0" t="n">
-        <v>0.0649998531006704</v>
+        <v>0.040624908187919</v>
       </c>
       <c r="J792" s="0" t="n">
         <v>0.09407</v>
@@ -27499,7 +27500,7 @@
         <v>3.34058232558139</v>
       </c>
       <c r="I793" s="0" t="n">
-        <v>0.0162499632751676</v>
+        <v>0.0101562270469797</v>
       </c>
       <c r="J793" s="0" t="n">
         <v>0.09407</v>
@@ -27787,7 +27788,7 @@
         <v>0.92</v>
       </c>
       <c r="I802" s="0" t="n">
-        <v>0.107057903304466</v>
+        <v>0.133822379130583</v>
       </c>
       <c r="J802" s="0" t="n">
         <v>0.09407</v>
@@ -27819,7 +27820,7 @@
         <v>1</v>
       </c>
       <c r="I803" s="0" t="n">
-        <v>0.0267644758261166</v>
+        <v>0.0334555947826458</v>
       </c>
       <c r="J803" s="0" t="n">
         <v>0.09407</v>
@@ -27851,7 +27852,7 @@
         <v>2.89517134883721</v>
       </c>
       <c r="I804" s="0" t="n">
-        <v>0.071371935536311</v>
+        <v>0.0446074597101944</v>
       </c>
       <c r="J804" s="0" t="n">
         <v>0.09407</v>
@@ -27883,7 +27884,7 @@
         <v>3.34058232558139</v>
       </c>
       <c r="I805" s="0" t="n">
-        <v>0.0178429838840777</v>
+        <v>0.0111518649275486</v>
       </c>
       <c r="J805" s="0" t="n">
         <v>0.09407</v>
@@ -28171,7 +28172,7 @@
         <v>0.92</v>
       </c>
       <c r="I814" s="0" t="n">
-        <v>0.0800005572610221</v>
+        <v>0.100000696576278</v>
       </c>
       <c r="J814" s="0" t="n">
         <v>0.09407</v>
@@ -28203,7 +28204,7 @@
         <v>1</v>
       </c>
       <c r="I815" s="0" t="n">
-        <v>0.0200001393152555</v>
+        <v>0.0250001741440694</v>
       </c>
       <c r="J815" s="0" t="n">
         <v>0.09407</v>
@@ -28235,7 +28236,7 @@
         <v>2.89517134883721</v>
       </c>
       <c r="I816" s="0" t="n">
-        <v>0.0533337048406814</v>
+        <v>0.0333335655254259</v>
       </c>
       <c r="J816" s="0" t="n">
         <v>0.09407</v>
@@ -28267,7 +28268,7 @@
         <v>3.34058232558139</v>
       </c>
       <c r="I817" s="0" t="n">
-        <v>0.0133334262101704</v>
+        <v>0.00833339138135647</v>
       </c>
       <c r="J817" s="0" t="n">
         <v>0.09407</v>
@@ -28555,7 +28556,7 @@
         <v>0.92</v>
       </c>
       <c r="I826" s="0" t="n">
-        <v>0.0930067174317048</v>
+        <v>0.116258396789631</v>
       </c>
       <c r="J826" s="0" t="n">
         <v>0.09407</v>
@@ -28587,7 +28588,7 @@
         <v>1</v>
       </c>
       <c r="I827" s="0" t="n">
-        <v>0.0232516793579262</v>
+        <v>0.0290645991974078</v>
       </c>
       <c r="J827" s="0" t="n">
         <v>0.09407</v>
@@ -28619,7 +28620,7 @@
         <v>2.89517134883721</v>
       </c>
       <c r="I828" s="0" t="n">
-        <v>0.0620044782878032</v>
+        <v>0.038752798929877</v>
       </c>
       <c r="J828" s="0" t="n">
         <v>0.09407</v>
@@ -28651,7 +28652,7 @@
         <v>3.34058232558139</v>
       </c>
       <c r="I829" s="0" t="n">
-        <v>0.0155011195719508</v>
+        <v>0.00968819973246925</v>
       </c>
       <c r="J829" s="0" t="n">
         <v>0.09407</v>
@@ -28939,7 +28940,7 @@
         <v>0.92</v>
       </c>
       <c r="I838" s="0" t="n">
-        <v>0.096813792908307</v>
+        <v>0.121017241135384</v>
       </c>
       <c r="J838" s="0" t="n">
         <v>0.09407</v>
@@ -28971,7 +28972,7 @@
         <v>1</v>
       </c>
       <c r="I839" s="0" t="n">
-        <v>0.0242034482270767</v>
+        <v>0.0302543102838459</v>
       </c>
       <c r="J839" s="0" t="n">
         <v>0.09407</v>
@@ -29003,7 +29004,7 @@
         <v>2.89517134883721</v>
       </c>
       <c r="I840" s="0" t="n">
-        <v>0.064542528605538</v>
+        <v>0.0403390803784612</v>
       </c>
       <c r="J840" s="0" t="n">
         <v>0.09407</v>
@@ -29035,7 +29036,7 @@
         <v>3.34058232558139</v>
       </c>
       <c r="I841" s="0" t="n">
-        <v>0.0161356321513845</v>
+        <v>0.0100847700946153</v>
       </c>
       <c r="J841" s="0" t="n">
         <v>0.09407</v>
@@ -29323,7 +29324,7 @@
         <v>0.92</v>
       </c>
       <c r="I850" s="0" t="n">
-        <v>0.100101642986183</v>
+        <v>0.125127053732729</v>
       </c>
       <c r="J850" s="0" t="n">
         <v>0.09407</v>
@@ -29355,7 +29356,7 @@
         <v>1</v>
       </c>
       <c r="I851" s="0" t="n">
-        <v>0.0250254107465457</v>
+        <v>0.0312817634331821</v>
       </c>
       <c r="J851" s="0" t="n">
         <v>0.09407</v>
@@ -29387,7 +29388,7 @@
         <v>2.89517134883721</v>
       </c>
       <c r="I852" s="0" t="n">
-        <v>0.0667344286574552</v>
+        <v>0.0417090179109095</v>
       </c>
       <c r="J852" s="0" t="n">
         <v>0.09407</v>
@@ -29419,7 +29420,7 @@
         <v>3.34058232558139</v>
       </c>
       <c r="I853" s="0" t="n">
-        <v>0.0166836071643638</v>
+        <v>0.0104272544777274</v>
       </c>
       <c r="J853" s="0" t="n">
         <v>0.09407</v>
@@ -29707,7 +29708,7 @@
         <v>0.92</v>
       </c>
       <c r="I862" s="0" t="n">
-        <v>0.0874446731446257</v>
+        <v>0.109305841430782</v>
       </c>
       <c r="J862" s="0" t="n">
         <v>0.09407</v>
@@ -29739,7 +29740,7 @@
         <v>1</v>
       </c>
       <c r="I863" s="0" t="n">
-        <v>0.0218611682861564</v>
+        <v>0.0273264603576955</v>
       </c>
       <c r="J863" s="0" t="n">
         <v>0.09407</v>
@@ -29771,7 +29772,7 @@
         <v>2.89517134883721</v>
       </c>
       <c r="I864" s="0" t="n">
-        <v>0.0582964487630838</v>
+        <v>0.0364352804769274</v>
       </c>
       <c r="J864" s="0" t="n">
         <v>0.09407</v>
@@ -29803,7 +29804,7 @@
         <v>3.34058232558139</v>
       </c>
       <c r="I865" s="0" t="n">
-        <v>0.014574112190771</v>
+        <v>0.00910882011923184</v>
       </c>
       <c r="J865" s="0" t="n">
         <v>0.09407</v>
@@ -30091,7 +30092,7 @@
         <v>0.92</v>
       </c>
       <c r="I874" s="0" t="n">
-        <v>0.126197178894168</v>
+        <v>0.15774647361771</v>
       </c>
       <c r="J874" s="0" t="n">
         <v>0.09407</v>
@@ -30123,7 +30124,7 @@
         <v>1</v>
       </c>
       <c r="I875" s="0" t="n">
-        <v>0.031549294723542</v>
+        <v>0.0394366184044274</v>
       </c>
       <c r="J875" s="0" t="n">
         <v>0.09407</v>
@@ -30155,7 +30156,7 @@
         <v>2.77281655813953</v>
       </c>
       <c r="I876" s="0" t="n">
-        <v>0.0841314525961119</v>
+        <v>0.0525821578725699</v>
       </c>
       <c r="J876" s="0" t="n">
         <v>0.09407</v>
@@ -30187,7 +30188,7 @@
         <v>3.19940372093023</v>
       </c>
       <c r="I877" s="0" t="n">
-        <v>0.021032863149028</v>
+        <v>0.0131455394681425</v>
       </c>
       <c r="J877" s="0" t="n">
         <v>0.09407</v>
@@ -30475,7 +30476,7 @@
         <v>0.92</v>
       </c>
       <c r="I886" s="0" t="n">
-        <v>0.158195605833477</v>
+        <v>0.197744507291846</v>
       </c>
       <c r="J886" s="0" t="n">
         <v>0.09407</v>
@@ -30507,7 +30508,7 @@
         <v>1</v>
       </c>
       <c r="I887" s="0" t="n">
-        <v>0.0395489014583692</v>
+        <v>0.0494361268229615</v>
       </c>
       <c r="J887" s="0" t="n">
         <v>0.09407</v>
@@ -30539,7 +30540,7 @@
         <v>2.82170260465116</v>
       </c>
       <c r="I888" s="0" t="n">
-        <v>0.105463737222318</v>
+        <v>0.0659148357639486</v>
       </c>
       <c r="J888" s="0" t="n">
         <v>0.09407</v>
@@ -30571,7 +30572,7 @@
         <v>3.25581069767441</v>
       </c>
       <c r="I889" s="0" t="n">
-        <v>0.0263659343055794</v>
+        <v>0.0164787089409872</v>
       </c>
       <c r="J889" s="0" t="n">
         <v>0.09407</v>
@@ -30859,7 +30860,7 @@
         <v>0.92</v>
       </c>
       <c r="I898" s="0" t="n">
-        <v>0.103658144594061</v>
+        <v>0.129572680742576</v>
       </c>
       <c r="J898" s="0" t="n">
         <v>0.09407</v>
@@ -30891,7 +30892,7 @@
         <v>1</v>
       </c>
       <c r="I899" s="0" t="n">
-        <v>0.0259145361485151</v>
+        <v>0.0323931701856439</v>
       </c>
       <c r="J899" s="0" t="n">
         <v>0.09407</v>
@@ -30923,7 +30924,7 @@
         <v>2.8138808372093</v>
       </c>
       <c r="I900" s="0" t="n">
-        <v>0.0691054297293737</v>
+        <v>0.0431908935808586</v>
       </c>
       <c r="J900" s="0" t="n">
         <v>0.09407</v>
@@ -30955,7 +30956,7 @@
         <v>3.24678558139534</v>
       </c>
       <c r="I901" s="0" t="n">
-        <v>0.0172763574323434</v>
+        <v>0.0107977233952146</v>
       </c>
       <c r="J901" s="0" t="n">
         <v>0.09407</v>
@@ -31243,7 +31244,7 @@
         <v>0.92</v>
       </c>
       <c r="I910" s="0" t="n">
-        <v>0.148724669110116</v>
+        <v>0.185905836387645</v>
       </c>
       <c r="J910" s="0" t="n">
         <v>0.09407</v>
@@ -31275,7 +31276,7 @@
         <v>1</v>
       </c>
       <c r="I911" s="0" t="n">
-        <v>0.0371811672775291</v>
+        <v>0.0464764590969114</v>
       </c>
       <c r="J911" s="0" t="n">
         <v>0.09407</v>
@@ -31307,7 +31308,7 @@
         <v>2.94489544186046</v>
       </c>
       <c r="I912" s="0" t="n">
-        <v>0.0991497794067443</v>
+        <v>0.0619686121292152</v>
       </c>
       <c r="J912" s="0" t="n">
         <v>0.09407</v>
@@ -31339,7 +31340,7 @@
         <v>3.39795627906976</v>
       </c>
       <c r="I913" s="0" t="n">
-        <v>0.0247874448516861</v>
+        <v>0.0154921530323038</v>
       </c>
       <c r="J913" s="0" t="n">
         <v>0.09407</v>
@@ -31627,7 +31628,7 @@
         <v>0.909145407051474</v>
       </c>
       <c r="I922" s="0" t="n">
-        <v>0.126980119772708</v>
+        <v>0.158725149715885</v>
       </c>
       <c r="J922" s="0" t="n">
         <v>0.09407</v>
@@ -31659,7 +31660,7 @@
         <v>1</v>
       </c>
       <c r="I923" s="0" t="n">
-        <v>0.0317450299431769</v>
+        <v>0.0396812874289712</v>
       </c>
       <c r="J923" s="0" t="n">
         <v>0.09407</v>
@@ -31691,7 +31692,7 @@
         <v>2.69257543418717</v>
       </c>
       <c r="I924" s="0" t="n">
-        <v>0.0846534131818051</v>
+        <v>0.0529083832386282</v>
       </c>
       <c r="J924" s="0" t="n">
         <v>0.09407</v>
@@ -31723,7 +31724,7 @@
         <v>2.66865839171316</v>
       </c>
       <c r="I925" s="0" t="n">
-        <v>0.0211633532954513</v>
+        <v>0.0132270958096571</v>
       </c>
       <c r="J925" s="0" t="n">
         <v>0.09407</v>
@@ -32011,7 +32012,7 @@
         <v>0.908305016401562</v>
       </c>
       <c r="I934" s="0" t="n">
-        <v>0.153645215100513</v>
+        <v>0.192056518875641</v>
       </c>
       <c r="J934" s="0" t="n">
         <v>0.09407</v>
@@ -32043,7 +32044,7 @@
         <v>1</v>
       </c>
       <c r="I935" s="0" t="n">
-        <v>0.0384113037751282</v>
+        <v>0.0480141297189103</v>
       </c>
       <c r="J935" s="0" t="n">
         <v>0.09407</v>
@@ -32075,7 +32076,7 @@
         <v>2.65692340011166</v>
       </c>
       <c r="I936" s="0" t="n">
-        <v>0.102430143400342</v>
+        <v>0.0640188396252137</v>
       </c>
       <c r="J936" s="0" t="n">
         <v>0.09407</v>
@@ -32107,7 +32108,7 @@
         <v>2.53657855675673</v>
       </c>
       <c r="I937" s="0" t="n">
-        <v>0.0256075358500855</v>
+        <v>0.0160047099063034</v>
       </c>
       <c r="J937" s="0" t="n">
         <v>0.09407</v>
@@ -32395,7 +32396,7 @@
         <v>0.92</v>
       </c>
       <c r="I946" s="0" t="n">
-        <v>0.125004977840251</v>
+        <v>0.156256222300314</v>
       </c>
       <c r="J946" s="0" t="n">
         <v>0.09407</v>
@@ -32427,7 +32428,7 @@
         <v>1</v>
       </c>
       <c r="I947" s="0" t="n">
-        <v>0.0312512444600629</v>
+        <v>0.0390640555750786</v>
       </c>
       <c r="J947" s="0" t="n">
         <v>0.09407</v>
@@ -32459,7 +32460,7 @@
         <v>2.94489544186046</v>
       </c>
       <c r="I948" s="0" t="n">
-        <v>0.0833366518935009</v>
+        <v>0.0520854074334381</v>
       </c>
       <c r="J948" s="0" t="n">
         <v>0.09407</v>
@@ -32491,7 +32492,7 @@
         <v>3.39795627906976</v>
       </c>
       <c r="I949" s="0" t="n">
-        <v>0.0208341629733752</v>
+        <v>0.0130213518583595</v>
       </c>
       <c r="J949" s="0" t="n">
         <v>0.09407</v>
@@ -32779,7 +32780,7 @@
         <v>0.92</v>
       </c>
       <c r="I958" s="0" t="n">
-        <v>0.126906250451688</v>
+        <v>0.15863281306461</v>
       </c>
       <c r="J958" s="0" t="n">
         <v>0.09407</v>
@@ -32811,7 +32812,7 @@
         <v>1</v>
       </c>
       <c r="I959" s="0" t="n">
-        <v>0.031726562612922</v>
+        <v>0.0396582032661525</v>
       </c>
       <c r="J959" s="0" t="n">
         <v>0.09407</v>
@@ -32843,7 +32844,7 @@
         <v>2.94489544186046</v>
       </c>
       <c r="I960" s="0" t="n">
-        <v>0.0846041669677921</v>
+        <v>0.0528776043548701</v>
       </c>
       <c r="J960" s="0" t="n">
         <v>0.09407</v>
@@ -32875,7 +32876,7 @@
         <v>3.39795627906976</v>
       </c>
       <c r="I961" s="0" t="n">
-        <v>0.021151041741948</v>
+        <v>0.0132194010887175</v>
       </c>
       <c r="J961" s="0" t="n">
         <v>0.09407</v>
@@ -33163,7 +33164,7 @@
         <v>0.92</v>
       </c>
       <c r="I970" s="0" t="n">
-        <v>0.109941004647653</v>
+        <v>0.137426255809566</v>
       </c>
       <c r="J970" s="0" t="n">
         <v>0.09407</v>
@@ -33195,7 +33196,7 @@
         <v>1</v>
       </c>
       <c r="I971" s="0" t="n">
-        <v>0.0274852511619132</v>
+        <v>0.0343565639523916</v>
       </c>
       <c r="J971" s="0" t="n">
         <v>0.09407</v>
@@ -33227,7 +33228,7 @@
         <v>2.94489544186046</v>
       </c>
       <c r="I972" s="0" t="n">
-        <v>0.0732940030984353</v>
+        <v>0.0458087519365221</v>
       </c>
       <c r="J972" s="0" t="n">
         <v>0.09407</v>
@@ -33259,7 +33260,7 @@
         <v>3.39795627906976</v>
       </c>
       <c r="I973" s="0" t="n">
-        <v>0.0183235007746088</v>
+        <v>0.0114521879841305</v>
       </c>
       <c r="J973" s="0" t="n">
         <v>0.09407</v>
@@ -33547,7 +33548,7 @@
         <v>0.92</v>
       </c>
       <c r="I982" s="0" t="n">
-        <v>0.128008338274307</v>
+        <v>0.160010422842884</v>
       </c>
       <c r="J982" s="0" t="n">
         <v>0.09407</v>
@@ -33579,7 +33580,7 @@
         <v>1</v>
       </c>
       <c r="I983" s="0" t="n">
-        <v>0.0320020845685768</v>
+        <v>0.040002605710721</v>
       </c>
       <c r="J983" s="0" t="n">
         <v>0.09407</v>
@@ -33611,7 +33612,7 @@
         <v>2.94489544186046</v>
       </c>
       <c r="I984" s="0" t="n">
-        <v>0.0853388921828714</v>
+        <v>0.0533368076142946</v>
       </c>
       <c r="J984" s="0" t="n">
         <v>0.09407</v>
@@ -33643,7 +33644,7 @@
         <v>3.39795627906976</v>
       </c>
       <c r="I985" s="0" t="n">
-        <v>0.0213347230457179</v>
+        <v>0.0133342019035737</v>
       </c>
       <c r="J985" s="0" t="n">
         <v>0.09407</v>
@@ -33931,7 +33932,7 @@
         <v>0.92</v>
       </c>
       <c r="I994" s="0" t="n">
-        <v>0.120299404746632</v>
+        <v>0.15037425593329</v>
       </c>
       <c r="J994" s="0" t="n">
         <v>0.09407</v>
@@ -33963,7 +33964,7 @@
         <v>1</v>
       </c>
       <c r="I995" s="0" t="n">
-        <v>0.0300748511866579</v>
+        <v>0.0375935639833224</v>
       </c>
       <c r="J995" s="0" t="n">
         <v>0.09407</v>
@@ -33995,7 +33996,7 @@
         <v>2.94489544186046</v>
       </c>
       <c r="I996" s="0" t="n">
-        <v>0.0801996031644212</v>
+        <v>0.0501247519777632</v>
       </c>
       <c r="J996" s="0" t="n">
         <v>0.09407</v>
@@ -34027,7 +34028,7 @@
         <v>3.39795627906976</v>
       </c>
       <c r="I997" s="0" t="n">
-        <v>0.0200499007911053</v>
+        <v>0.0125311879944408</v>
       </c>
       <c r="J997" s="0" t="n">
         <v>0.09407</v>
@@ -34315,7 +34316,7 @@
         <v>0.91601788579863</v>
       </c>
       <c r="I1006" s="0" t="n">
-        <v>0.133822031151873</v>
+        <v>0.167277538939841</v>
       </c>
       <c r="J1006" s="0" t="n">
         <v>0.09407</v>
@@ -34347,7 +34348,7 @@
         <v>1</v>
       </c>
       <c r="I1007" s="0" t="n">
-        <v>0.0334555077879683</v>
+        <v>0.0418193847349603</v>
       </c>
       <c r="J1007" s="0" t="n">
         <v>0.09407</v>
@@ -34379,7 +34380,7 @@
         <v>2.81462482166341</v>
       </c>
       <c r="I1008" s="0" t="n">
-        <v>0.0892146874345821</v>
+        <v>0.0557591796466138</v>
       </c>
       <c r="J1008" s="0" t="n">
         <v>0.09407</v>
@@ -34411,7 +34412,7 @@
         <v>2.97321354256344</v>
       </c>
       <c r="I1009" s="0" t="n">
-        <v>0.0223036718586455</v>
+        <v>0.0139397949116535</v>
       </c>
       <c r="J1009" s="0" t="n">
         <v>0.09407</v>
@@ -34699,7 +34700,7 @@
         <v>0.915653920499225</v>
       </c>
       <c r="I1018" s="0" t="n">
-        <v>0.127791381571601</v>
+        <v>0.159739226964501</v>
       </c>
       <c r="J1018" s="0" t="n">
         <v>0.09407</v>
@@ -34731,7 +34732,7 @@
         <v>1</v>
       </c>
       <c r="I1019" s="0" t="n">
-        <v>0.0319478453929002</v>
+        <v>0.0399348067411252</v>
       </c>
       <c r="J1019" s="0" t="n">
         <v>0.09407</v>
@@ -34763,7 +34764,7 @@
         <v>2.81310184967335</v>
       </c>
       <c r="I1020" s="0" t="n">
-        <v>0.0851942543810671</v>
+        <v>0.0532464089881669</v>
       </c>
       <c r="J1020" s="0" t="n">
         <v>0.09407</v>
@@ -34795,7 +34796,7 @@
         <v>2.97064346076446</v>
       </c>
       <c r="I1021" s="0" t="n">
-        <v>0.0212985635952668</v>
+        <v>0.0133116022470417</v>
       </c>
       <c r="J1021" s="0" t="n">
         <v>0.09407</v>
@@ -35083,7 +35084,7 @@
         <v>0.917133540598765</v>
       </c>
       <c r="I1030" s="0" t="n">
-        <v>0.114893339950515</v>
+        <v>0.143616674938144</v>
       </c>
       <c r="J1030" s="0" t="n">
         <v>0.09407</v>
@@ -35115,7 +35116,7 @@
         <v>1</v>
       </c>
       <c r="I1031" s="0" t="n">
-        <v>0.0287233349876289</v>
+        <v>0.0359041687345361</v>
       </c>
       <c r="J1031" s="0" t="n">
         <v>0.09407</v>
@@ -35147,7 +35148,7 @@
         <v>2.83541239870046</v>
       </c>
       <c r="I1032" s="0" t="n">
-        <v>0.0765955599670103</v>
+        <v>0.0478722249793814</v>
       </c>
       <c r="J1032" s="0" t="n">
         <v>0.09407</v>
@@ -35179,7 +35180,7 @@
         <v>3.01122616213059</v>
       </c>
       <c r="I1033" s="0" t="n">
-        <v>0.0191488899917526</v>
+        <v>0.0119680562448454</v>
       </c>
       <c r="J1033" s="0" t="n">
         <v>0.09407</v>
@@ -35467,7 +35468,7 @@
         <v>0.92</v>
       </c>
       <c r="I1042" s="0" t="n">
-        <v>0.209394324117315</v>
+        <v>0.261742905146643</v>
       </c>
       <c r="J1042" s="0" t="n">
         <v>0.09407</v>
@@ -35499,7 +35500,7 @@
         <v>1</v>
       </c>
       <c r="I1043" s="0" t="n">
-        <v>0.0523485810293287</v>
+        <v>0.0654357262866608</v>
       </c>
       <c r="J1043" s="0" t="n">
         <v>0.09407</v>
@@ -35531,7 +35532,7 @@
         <v>2.9521585116279</v>
       </c>
       <c r="I1044" s="0" t="n">
-        <v>0.0697981080391049</v>
+        <v>0.0436238175244406</v>
       </c>
       <c r="J1044" s="0" t="n">
         <v>0.09407</v>
@@ -35563,7 +35564,7 @@
         <v>3.40633674418604</v>
       </c>
       <c r="I1045" s="0" t="n">
-        <v>0.0174495270097762</v>
+        <v>0.0109059543811101</v>
       </c>
       <c r="J1045" s="0" t="n">
         <v>0.09407</v>
@@ -35595,7 +35596,7 @@
         <v>2.81101778073089</v>
       </c>
       <c r="I1046" s="0" t="n">
-        <v>0.0697981080391049</v>
+        <v>0.0436238175244406</v>
       </c>
       <c r="J1046" s="0" t="n">
         <v>0.09407</v>
@@ -35627,7 +35628,7 @@
         <v>3.33681966777408</v>
       </c>
       <c r="I1047" s="0" t="n">
-        <v>0.0174495270097762</v>
+        <v>0.0109059543811101</v>
       </c>
       <c r="J1047" s="0" t="n">
         <v>0.09407</v>
@@ -35787,7 +35788,7 @@
         <v>0.84</v>
       </c>
       <c r="I1052" s="0" t="n">
-        <v>0.100783395990649</v>
+        <v>0.125979244988311</v>
       </c>
       <c r="J1052" s="0" t="n">
         <v>0.09407</v>
@@ -35819,7 +35820,7 @@
         <v>1</v>
       </c>
       <c r="I1053" s="0" t="n">
-        <v>0.0251958489976622</v>
+        <v>0.0314948112470778</v>
       </c>
       <c r="J1053" s="0" t="n">
         <v>0.09407</v>
@@ -35979,7 +35980,7 @@
         <v>0.919999999999999</v>
       </c>
       <c r="I1058" s="0" t="n">
-        <v>0.100783395990649</v>
+        <v>0.125979244988311</v>
       </c>
       <c r="J1058" s="0" t="n">
         <v>0.09407</v>
@@ -36011,7 +36012,7 @@
         <v>1</v>
       </c>
       <c r="I1059" s="0" t="n">
-        <v>0.0251958489976622</v>
+        <v>0.0314948112470778</v>
       </c>
       <c r="J1059" s="0" t="n">
         <v>0.09407</v>
@@ -36043,7 +36044,7 @@
         <v>2.95662809302325</v>
       </c>
       <c r="I1060" s="0" t="n">
-        <v>0.0671889306604326</v>
+        <v>0.0419930816627704</v>
       </c>
       <c r="J1060" s="0" t="n">
         <v>0.09407</v>
@@ -36075,7 +36076,7 @@
         <v>3.41149395348837</v>
       </c>
       <c r="I1061" s="0" t="n">
-        <v>0.0167972326651082</v>
+        <v>0.0104982704156926</v>
       </c>
       <c r="J1061" s="0" t="n">
         <v>0.09407</v>
@@ -36107,7 +36108,7 @@
         <v>2.8152736744186</v>
       </c>
       <c r="I1062" s="0" t="n">
-        <v>0.0671889306604326</v>
+        <v>0.0419930816627704</v>
       </c>
       <c r="J1062" s="0" t="n">
         <v>0.09407</v>
@@ -36139,7 +36140,7 @@
         <v>3.34187162790697</v>
       </c>
       <c r="I1063" s="0" t="n">
-        <v>0.0167972326651082</v>
+        <v>0.0104982704156926</v>
       </c>
       <c r="J1063" s="0" t="n">
         <v>0.09407</v>
@@ -36299,7 +36300,7 @@
         <v>0.84</v>
       </c>
       <c r="I1068" s="0" t="n">
-        <v>0.0897005070090665</v>
+        <v>0.112125633761333</v>
       </c>
       <c r="J1068" s="0" t="n">
         <v>0.09407</v>
@@ -36331,7 +36332,7 @@
         <v>1</v>
       </c>
       <c r="I1069" s="0" t="n">
-        <v>0.0224251267522666</v>
+        <v>0.0280314084403333</v>
       </c>
       <c r="J1069" s="0" t="n">
         <v>0.09407</v>
@@ -36491,7 +36492,7 @@
         <v>0.919999999999999</v>
       </c>
       <c r="I1074" s="0" t="n">
-        <v>0.0897005070090665</v>
+        <v>0.112125633761333</v>
       </c>
       <c r="J1074" s="0" t="n">
         <v>0.09407</v>
@@ -36523,7 +36524,7 @@
         <v>1</v>
       </c>
       <c r="I1075" s="0" t="n">
-        <v>0.0224251267522666</v>
+        <v>0.0280314084403333</v>
       </c>
       <c r="J1075" s="0" t="n">
         <v>0.09407</v>
@@ -36555,7 +36556,7 @@
         <v>2.91360837209302</v>
       </c>
       <c r="I1076" s="0" t="n">
-        <v>0.0598003380060444</v>
+        <v>0.0373752112537777</v>
       </c>
       <c r="J1076" s="0" t="n">
         <v>0.09407</v>
@@ -36587,7 +36588,7 @@
         <v>3.36185581395348</v>
       </c>
       <c r="I1077" s="0" t="n">
-        <v>0.0149500845015111</v>
+        <v>0.00934380281344443</v>
       </c>
       <c r="J1077" s="0" t="n">
         <v>0.09407</v>
@@ -36619,7 +36620,7 @@
         <v>2.77431069767441</v>
       </c>
       <c r="I1078" s="0" t="n">
-        <v>0.0598003380060444</v>
+        <v>0.0373752112537777</v>
       </c>
       <c r="J1078" s="0" t="n">
         <v>0.09407</v>
@@ -36651,7 +36652,7 @@
         <v>3.2932465116279</v>
       </c>
       <c r="I1079" s="0" t="n">
-        <v>0.0149500845015111</v>
+        <v>0.00934380281344443</v>
       </c>
       <c r="J1079" s="0" t="n">
         <v>0.09407</v>
@@ -36875,7 +36876,7 @@
         <v>0.839999999999999</v>
       </c>
       <c r="I1086" s="0" t="n">
-        <v>0.0626759146196497</v>
+        <v>0.0783448932745621</v>
       </c>
       <c r="J1086" s="0" t="n">
         <v>0.09407</v>
@@ -36907,7 +36908,7 @@
         <v>1</v>
       </c>
       <c r="I1087" s="0" t="n">
-        <v>0.0156689786549124</v>
+        <v>0.0195862233186405</v>
       </c>
       <c r="J1087" s="0" t="n">
         <v>0.09407</v>
@@ -37067,7 +37068,7 @@
         <v>0.92</v>
       </c>
       <c r="I1092" s="0" t="n">
-        <v>0.0626759146196497</v>
+        <v>0.0783448932745621</v>
       </c>
       <c r="J1092" s="0" t="n">
         <v>0.09407</v>
@@ -37099,7 +37100,7 @@
         <v>1</v>
       </c>
       <c r="I1093" s="0" t="n">
-        <v>0.0156689786549124</v>
+        <v>0.0195862233186405</v>
       </c>
       <c r="J1093" s="0" t="n">
         <v>0.09407</v>
@@ -37131,7 +37132,7 @@
         <v>2.9521585116279</v>
       </c>
       <c r="I1094" s="0" t="n">
-        <v>0.0417839430797665</v>
+        <v>0.026114964424854</v>
       </c>
       <c r="J1094" s="0" t="n">
         <v>0.09407</v>
@@ -37163,7 +37164,7 @@
         <v>3.40633674418604</v>
       </c>
       <c r="I1095" s="0" t="n">
-        <v>0.0104459857699416</v>
+        <v>0.00652874110621351</v>
       </c>
       <c r="J1095" s="0" t="n">
         <v>0.09407</v>
@@ -37195,7 +37196,7 @@
         <v>2.81101778073089</v>
       </c>
       <c r="I1096" s="0" t="n">
-        <v>0.0417839430797665</v>
+        <v>0.026114964424854</v>
       </c>
       <c r="J1096" s="0" t="n">
         <v>0.09407</v>
@@ -37227,7 +37228,7 @@
         <v>3.33681966777408</v>
       </c>
       <c r="I1097" s="0" t="n">
-        <v>0.0104459857699416</v>
+        <v>0.00652874110621351</v>
       </c>
       <c r="J1097" s="0" t="n">
         <v>0.09407</v>
@@ -37579,7 +37580,7 @@
         <v>2.45701711046511</v>
       </c>
       <c r="I1108" s="0" t="n">
-        <v>0.132223077033672</v>
+        <v>0.0826394231460451</v>
       </c>
       <c r="J1108" s="0" t="n">
         <v>0.09407</v>
@@ -37611,7 +37612,7 @@
         <v>3.17730976744185</v>
       </c>
       <c r="I1109" s="0" t="n">
-        <v>0.033055769258418</v>
+        <v>0.0206598557865113</v>
       </c>
       <c r="J1109" s="0" t="n">
         <v>0.09407</v>
@@ -37643,7 +37644,7 @@
         <v>0.92</v>
       </c>
       <c r="I1110" s="0" t="n">
-        <v>0.198334615550508</v>
+        <v>0.247918269438135</v>
       </c>
       <c r="J1110" s="0" t="n">
         <v>0.09407</v>
@@ -37675,7 +37676,7 @@
         <v>1</v>
       </c>
       <c r="I1111" s="0" t="n">
-        <v>0.0495836538876271</v>
+        <v>0.0619795673595338</v>
       </c>
       <c r="J1111" s="0" t="n">
         <v>0.09407</v>
@@ -37835,7 +37836,7 @@
         <v>0.84</v>
       </c>
       <c r="I1116" s="0" t="n">
-        <v>0.115434831396195</v>
+        <v>0.144293539245243</v>
       </c>
       <c r="J1116" s="0" t="n">
         <v>0.09407</v>
@@ -37867,7 +37868,7 @@
         <v>1</v>
       </c>
       <c r="I1117" s="0" t="n">
-        <v>0.0288587078490486</v>
+        <v>0.0360733848113108</v>
       </c>
       <c r="J1117" s="0" t="n">
         <v>0.09407</v>
@@ -38027,7 +38028,7 @@
         <v>0.92</v>
       </c>
       <c r="I1122" s="0" t="n">
-        <v>0.115434831396195</v>
+        <v>0.144293539245243</v>
       </c>
       <c r="J1122" s="0" t="n">
         <v>0.09407</v>
@@ -38059,7 +38060,7 @@
         <v>1</v>
       </c>
       <c r="I1123" s="0" t="n">
-        <v>0.0288587078490486</v>
+        <v>0.0360733848113108</v>
       </c>
       <c r="J1123" s="0" t="n">
         <v>0.09407</v>
@@ -38091,7 +38092,7 @@
         <v>2.95662809302325</v>
       </c>
       <c r="I1124" s="0" t="n">
-        <v>0.153913108528259</v>
+        <v>0.0961956928301621</v>
       </c>
       <c r="J1124" s="0" t="n">
         <v>0.09407</v>
@@ -38123,7 +38124,7 @@
         <v>3.41149395348837</v>
       </c>
       <c r="I1125" s="0" t="n">
-        <v>0.0384782771320648</v>
+        <v>0.0240489232075405</v>
       </c>
       <c r="J1125" s="0" t="n">
         <v>0.09407</v>
@@ -38283,7 +38284,7 @@
         <v>0.84</v>
       </c>
       <c r="I1130" s="0" t="n">
-        <v>0.0729713532451986</v>
+        <v>0.0912141915564982</v>
       </c>
       <c r="J1130" s="0" t="n">
         <v>0.09407</v>
@@ -38315,7 +38316,7 @@
         <v>1</v>
       </c>
       <c r="I1131" s="0" t="n">
-        <v>0.0182428383112996</v>
+        <v>0.0228035478891246</v>
       </c>
       <c r="J1131" s="0" t="n">
         <v>0.09407</v>
@@ -38475,7 +38476,7 @@
         <v>0.92</v>
       </c>
       <c r="I1136" s="0" t="n">
-        <v>0.0729713532451986</v>
+        <v>0.0912141915564982</v>
       </c>
       <c r="J1136" s="0" t="n">
         <v>0.09407</v>
@@ -38507,7 +38508,7 @@
         <v>1</v>
       </c>
       <c r="I1137" s="0" t="n">
-        <v>0.0182428383112996</v>
+        <v>0.0228035478891246</v>
       </c>
       <c r="J1137" s="0" t="n">
         <v>0.09407</v>
@@ -38539,7 +38540,7 @@
         <v>2.9521585116279</v>
       </c>
       <c r="I1138" s="0" t="n">
-        <v>0.0486475688301324</v>
+        <v>0.0304047305188327</v>
       </c>
       <c r="J1138" s="0" t="n">
         <v>0.09407</v>
@@ -38571,7 +38572,7 @@
         <v>3.40633674418604</v>
       </c>
       <c r="I1139" s="0" t="n">
-        <v>0.0121618922075331</v>
+        <v>0.00760118262970819</v>
       </c>
       <c r="J1139" s="0" t="n">
         <v>0.09407</v>
@@ -38603,7 +38604,7 @@
         <v>2.81101778073089</v>
       </c>
       <c r="I1140" s="0" t="n">
-        <v>0.0486475688301324</v>
+        <v>0.0304047305188327</v>
       </c>
       <c r="J1140" s="0" t="n">
         <v>0.09407</v>
@@ -38635,7 +38636,7 @@
         <v>3.33681966777408</v>
       </c>
       <c r="I1141" s="0" t="n">
-        <v>0.0121618922075331</v>
+        <v>0.00760118262970819</v>
       </c>
       <c r="J1141" s="0" t="n">
         <v>0.09407</v>
@@ -38859,7 +38860,7 @@
         <v>0.84</v>
       </c>
       <c r="I1148" s="0" t="n">
-        <v>0.10528002154015</v>
+        <v>0.131600026925188</v>
       </c>
       <c r="J1148" s="0" t="n">
         <v>0.09407</v>
@@ -38891,7 +38892,7 @@
         <v>1</v>
       </c>
       <c r="I1149" s="0" t="n">
-        <v>0.0263200053850376</v>
+        <v>0.032900006731297</v>
       </c>
       <c r="J1149" s="0" t="n">
         <v>0.09407</v>
@@ -39051,7 +39052,7 @@
         <v>0.92</v>
       </c>
       <c r="I1154" s="0" t="n">
-        <v>0.10528002154015</v>
+        <v>0.131600026925188</v>
       </c>
       <c r="J1154" s="0" t="n">
         <v>0.09407</v>
@@ -39083,7 +39084,7 @@
         <v>1</v>
       </c>
       <c r="I1155" s="0" t="n">
-        <v>0.0263200053850376</v>
+        <v>0.032900006731297</v>
       </c>
       <c r="J1155" s="0" t="n">
         <v>0.09407</v>
@@ -39115,7 +39116,7 @@
         <v>2.95662809302325</v>
       </c>
       <c r="I1156" s="0" t="n">
-        <v>0.0701866810267669</v>
+        <v>0.0438666756417293</v>
       </c>
       <c r="J1156" s="0" t="n">
         <v>0.09407</v>
@@ -39147,7 +39148,7 @@
         <v>3.41149395348837</v>
       </c>
       <c r="I1157" s="0" t="n">
-        <v>0.0175466702566917</v>
+        <v>0.0109666689104323</v>
       </c>
       <c r="J1157" s="0" t="n">
         <v>0.09407</v>
@@ -39179,7 +39180,7 @@
         <v>2.72589990697674</v>
       </c>
       <c r="I1158" s="0" t="n">
-        <v>0.0701866810267669</v>
+        <v>0.0438666756417293</v>
       </c>
       <c r="J1158" s="0" t="n">
         <v>0.09407</v>
@@ -39211,7 +39212,7 @@
         <v>3.23578046511627</v>
       </c>
       <c r="I1159" s="0" t="n">
-        <v>0.0175466702566917</v>
+        <v>0.0109666689104323</v>
       </c>
       <c r="J1159" s="0" t="n">
         <v>0.09407</v>
@@ -39371,7 +39372,7 @@
         <v>0.84</v>
       </c>
       <c r="I1164" s="0" t="n">
-        <v>0.112704833982571</v>
+        <v>0.140881042478213</v>
       </c>
       <c r="J1164" s="0" t="n">
         <v>0.09407</v>
@@ -39403,7 +39404,7 @@
         <v>1</v>
       </c>
       <c r="I1165" s="0" t="n">
-        <v>0.0281762084956426</v>
+        <v>0.0352202606195533</v>
       </c>
       <c r="J1165" s="0" t="n">
         <v>0.09407</v>
@@ -39563,7 +39564,7 @@
         <v>0.92</v>
       </c>
       <c r="I1170" s="0" t="n">
-        <v>0.112704833982571</v>
+        <v>0.140881042478213</v>
       </c>
       <c r="J1170" s="0" t="n">
         <v>0.09407</v>
@@ -39595,7 +39596,7 @@
         <v>1</v>
       </c>
       <c r="I1171" s="0" t="n">
-        <v>0.0281762084956426</v>
+        <v>0.0352202606195533</v>
       </c>
       <c r="J1171" s="0" t="n">
         <v>0.09407</v>
@@ -39627,7 +39628,7 @@
         <v>2.95662809302325</v>
       </c>
       <c r="I1172" s="0" t="n">
-        <v>0.0751365559883803</v>
+        <v>0.0469603474927377</v>
       </c>
       <c r="J1172" s="0" t="n">
         <v>0.09407</v>
@@ -39659,7 +39660,7 @@
         <v>3.41149395348837</v>
       </c>
       <c r="I1173" s="0" t="n">
-        <v>0.0187841389970951</v>
+        <v>0.0117400868731844</v>
       </c>
       <c r="J1173" s="0" t="n">
         <v>0.09407</v>
@@ -39691,7 +39692,7 @@
         <v>2.72589990697674</v>
       </c>
       <c r="I1174" s="0" t="n">
-        <v>0.0751365559883803</v>
+        <v>0.0469603474927377</v>
       </c>
       <c r="J1174" s="0" t="n">
         <v>0.09407</v>
@@ -39723,7 +39724,7 @@
         <v>3.23578046511627</v>
       </c>
       <c r="I1175" s="0" t="n">
-        <v>0.0187841389970951</v>
+        <v>0.0117400868731844</v>
       </c>
       <c r="J1175" s="0" t="n">
         <v>0.09407</v>
@@ -39947,7 +39948,7 @@
         <v>0.84</v>
       </c>
       <c r="I1182" s="0" t="n">
-        <v>0.0692975687530503</v>
+        <v>0.0866219609413129</v>
       </c>
       <c r="J1182" s="0" t="n">
         <v>0.09407</v>
@@ -39979,7 +39980,7 @@
         <v>1</v>
       </c>
       <c r="I1183" s="0" t="n">
-        <v>0.0173243921882626</v>
+        <v>0.0216554902353282</v>
       </c>
       <c r="J1183" s="0" t="n">
         <v>0.09407</v>
@@ -40139,7 +40140,7 @@
         <v>0.92</v>
       </c>
       <c r="I1188" s="0" t="n">
-        <v>0.0692975687530503</v>
+        <v>0.0866219609413129</v>
       </c>
       <c r="J1188" s="0" t="n">
         <v>0.09407</v>
@@ -40171,7 +40172,7 @@
         <v>1</v>
       </c>
       <c r="I1189" s="0" t="n">
-        <v>0.0173243921882626</v>
+        <v>0.0216554902353282</v>
       </c>
       <c r="J1189" s="0" t="n">
         <v>0.09407</v>
@@ -40203,7 +40204,7 @@
         <v>2.9521585116279</v>
       </c>
       <c r="I1190" s="0" t="n">
-        <v>0.0461983791687002</v>
+        <v>0.0288739869804376</v>
       </c>
       <c r="J1190" s="0" t="n">
         <v>0.09407</v>
@@ -40235,7 +40236,7 @@
         <v>3.40633674418604</v>
       </c>
       <c r="I1191" s="0" t="n">
-        <v>0.0115495947921751</v>
+        <v>0.00721849674510941</v>
       </c>
       <c r="J1191" s="0" t="n">
         <v>0.09407</v>
@@ -40267,7 +40268,7 @@
         <v>2.72589990697674</v>
       </c>
       <c r="I1192" s="0" t="n">
-        <v>0.0461983791687002</v>
+        <v>0.0288739869804376</v>
       </c>
       <c r="J1192" s="0" t="n">
         <v>0.09407</v>
@@ -40299,7 +40300,7 @@
         <v>3.23578046511627</v>
       </c>
       <c r="I1193" s="0" t="n">
-        <v>0.0115495947921751</v>
+        <v>0.00721849674510941</v>
       </c>
       <c r="J1193" s="0" t="n">
         <v>0.09407</v>
@@ -40523,7 +40524,7 @@
         <v>0.84</v>
       </c>
       <c r="I1200" s="0" t="n">
-        <v>0.0584166826270218</v>
+        <v>0.0730208532837772</v>
       </c>
       <c r="J1200" s="0" t="n">
         <v>0.09407</v>
@@ -40555,7 +40556,7 @@
         <v>1</v>
       </c>
       <c r="I1201" s="0" t="n">
-        <v>0.0146041706567554</v>
+        <v>0.0182552133209443</v>
       </c>
       <c r="J1201" s="0" t="n">
         <v>0.09407</v>
@@ -40715,7 +40716,7 @@
         <v>0.92</v>
       </c>
       <c r="I1206" s="0" t="n">
-        <v>0.0584166826270218</v>
+        <v>0.0730208532837772</v>
       </c>
       <c r="J1206" s="0" t="n">
         <v>0.09407</v>
@@ -40747,7 +40748,7 @@
         <v>1</v>
       </c>
       <c r="I1207" s="0" t="n">
-        <v>0.0146041706567554</v>
+        <v>0.0182552133209443</v>
       </c>
       <c r="J1207" s="0" t="n">
         <v>0.09407</v>
@@ -40779,7 +40780,7 @@
         <v>2.9521585116279</v>
       </c>
       <c r="I1208" s="0" t="n">
-        <v>0.0389444550846812</v>
+        <v>0.0243402844279257</v>
       </c>
       <c r="J1208" s="0" t="n">
         <v>0.09407</v>
@@ -40811,7 +40812,7 @@
         <v>3.40633674418604</v>
       </c>
       <c r="I1209" s="0" t="n">
-        <v>0.00973611377117029</v>
+        <v>0.00608507110698143</v>
       </c>
       <c r="J1209" s="0" t="n">
         <v>0.09407</v>
@@ -40843,7 +40844,7 @@
         <v>2.88602790697674</v>
       </c>
       <c r="I1210" s="0" t="n">
-        <v>0.0389444550846812</v>
+        <v>0.0243402844279257</v>
       </c>
       <c r="J1210" s="0" t="n">
         <v>0.09407</v>
@@ -40875,7 +40876,7 @@
         <v>3.42586046511627</v>
       </c>
       <c r="I1211" s="0" t="n">
-        <v>0.00973611377117029</v>
+        <v>0.00608507110698143</v>
       </c>
       <c r="J1211" s="0" t="n">
         <v>0.09407</v>
@@ -41099,7 +41100,7 @@
         <v>0.84</v>
       </c>
       <c r="I1218" s="0" t="n">
-        <v>0.0988196103270306</v>
+        <v>0.123524512908788</v>
       </c>
       <c r="J1218" s="0" t="n">
         <v>0.09407</v>
@@ -41131,7 +41132,7 @@
         <v>1</v>
       </c>
       <c r="I1219" s="0" t="n">
-        <v>0.0247049025817576</v>
+        <v>0.0308811282271971</v>
       </c>
       <c r="J1219" s="0" t="n">
         <v>0.09407</v>
@@ -41291,7 +41292,7 @@
         <v>0.92</v>
       </c>
       <c r="I1224" s="0" t="n">
-        <v>0.0988196103270306</v>
+        <v>0.123524512908788</v>
       </c>
       <c r="J1224" s="0" t="n">
         <v>0.09407</v>
@@ -41323,7 +41324,7 @@
         <v>1</v>
       </c>
       <c r="I1225" s="0" t="n">
-        <v>0.0247049025817576</v>
+        <v>0.0308811282271971</v>
       </c>
       <c r="J1225" s="0" t="n">
         <v>0.09407</v>
@@ -41355,7 +41356,7 @@
         <v>2.9521585116279</v>
       </c>
       <c r="I1226" s="0" t="n">
-        <v>0.131759480436041</v>
+        <v>0.0823496752725255</v>
       </c>
       <c r="J1226" s="0" t="n">
         <v>0.09407</v>
@@ -41387,7 +41388,7 @@
         <v>3.40633674418604</v>
       </c>
       <c r="I1227" s="0" t="n">
-        <v>0.0329398701090102</v>
+        <v>0.0205874188181314</v>
       </c>
       <c r="J1227" s="0" t="n">
         <v>0.09407</v>
@@ -41611,7 +41612,7 @@
         <v>0.84</v>
       </c>
       <c r="I1234" s="0" t="n">
-        <v>0.118115706444198</v>
+        <v>0.147644633055248</v>
       </c>
       <c r="J1234" s="0" t="n">
         <v>0.09407</v>
@@ -41643,7 +41644,7 @@
         <v>1</v>
       </c>
       <c r="I1235" s="0" t="n">
-        <v>0.0295289266110495</v>
+        <v>0.0369111582638119</v>
       </c>
       <c r="J1235" s="0" t="n">
         <v>0.09407</v>
@@ -41803,7 +41804,7 @@
         <v>0.92</v>
       </c>
       <c r="I1240" s="0" t="n">
-        <v>0.118115706444198</v>
+        <v>0.147644633055248</v>
       </c>
       <c r="J1240" s="0" t="n">
         <v>0.09407</v>
@@ -41835,7 +41836,7 @@
         <v>1</v>
       </c>
       <c r="I1241" s="0" t="n">
-        <v>0.0295289266110495</v>
+        <v>0.0369111582638119</v>
       </c>
       <c r="J1241" s="0" t="n">
         <v>0.09407</v>
@@ -41867,7 +41868,7 @@
         <v>2.95662809302325</v>
       </c>
       <c r="I1242" s="0" t="n">
-        <v>0.157487608592264</v>
+        <v>0.0984297553701651</v>
       </c>
       <c r="J1242" s="0" t="n">
         <v>0.09407</v>
@@ -41899,7 +41900,7 @@
         <v>3.41149395348837</v>
       </c>
       <c r="I1243" s="0" t="n">
-        <v>0.039371902148066</v>
+        <v>0.0246074388425413</v>
       </c>
       <c r="J1243" s="0" t="n">
         <v>0.09407</v>
